--- a/results.xlsx
+++ b/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="435" yWindow="95" windowWidth="23393" windowHeight="10134"/>
+    <workbookView xWindow="435" yWindow="95" windowWidth="23393" windowHeight="10134" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PICAT-SOC" sheetId="1" r:id="rId1"/>
@@ -433,7 +433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H901"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
@@ -22891,11 +22891,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H901"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="26.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -22946,7 +22949,7 @@
         <v>13</v>
       </c>
       <c r="H2">
-        <v>0.26500000000000001</v>
+        <v>0.32800000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -22972,7 +22975,7 @@
         <v>14</v>
       </c>
       <c r="H3">
-        <v>0.23499999999999999</v>
+        <v>0.26500000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -22998,7 +23001,7 @@
         <v>13</v>
       </c>
       <c r="H4">
-        <v>0.188</v>
+        <v>0.219</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -23050,7 +23053,7 @@
         <v>13</v>
       </c>
       <c r="H6">
-        <v>0.219</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -23076,7 +23079,7 @@
         <v>22</v>
       </c>
       <c r="H7">
-        <v>0.42199999999999999</v>
+        <v>0.51600000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -23102,7 +23105,7 @@
         <v>23</v>
       </c>
       <c r="H8">
-        <v>0.46899999999999997</v>
+        <v>0.57799999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -23128,7 +23131,7 @@
         <v>22</v>
       </c>
       <c r="H9">
-        <v>0.73399999999999999</v>
+        <v>0.78200000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -23154,7 +23157,7 @@
         <v>26</v>
       </c>
       <c r="H10">
-        <v>0.75</v>
+        <v>0.82799999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -23180,7 +23183,7 @@
         <v>23</v>
       </c>
       <c r="H11">
-        <v>0.53100000000000003</v>
+        <v>0.56299999999999994</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -23206,7 +23209,7 @@
         <v>32</v>
       </c>
       <c r="H12">
-        <v>1.4059999999999999</v>
+        <v>1.5780000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -23232,7 +23235,7 @@
         <v>30</v>
       </c>
       <c r="H13">
-        <v>0.75</v>
+        <v>0.84399999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -23258,7 +23261,7 @@
         <v>28</v>
       </c>
       <c r="H14">
-        <v>0.59399999999999997</v>
+        <v>0.51600000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -23284,7 +23287,7 @@
         <v>28</v>
       </c>
       <c r="H15">
-        <v>1.5149999999999999</v>
+        <v>1.6870000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -23310,7 +23313,7 @@
         <v>28</v>
       </c>
       <c r="H16">
-        <v>0.65700000000000003</v>
+        <v>0.82799999999999996</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -23336,7 +23339,7 @@
         <v>13</v>
       </c>
       <c r="H17">
-        <v>0.39100000000000001</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -23388,7 +23391,7 @@
         <v>13</v>
       </c>
       <c r="H19">
-        <v>0.23400000000000001</v>
+        <v>0.28100000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -23414,7 +23417,7 @@
         <v>14</v>
       </c>
       <c r="H20">
-        <v>0.25</v>
+        <v>0.29699999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -23440,7 +23443,7 @@
         <v>13</v>
       </c>
       <c r="H21">
-        <v>0.25</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -23466,7 +23469,7 @@
         <v>22</v>
       </c>
       <c r="H22">
-        <v>0.51500000000000001</v>
+        <v>0.59399999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -23492,7 +23495,7 @@
         <v>23</v>
       </c>
       <c r="H23">
-        <v>0.65600000000000003</v>
+        <v>0.67100000000000004</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -23518,7 +23521,7 @@
         <v>22</v>
       </c>
       <c r="H24">
-        <v>0.93799999999999994</v>
+        <v>0.98499999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -23544,7 +23547,7 @@
         <v>26</v>
       </c>
       <c r="H25">
-        <v>0.89100000000000001</v>
+        <v>0.95299999999999996</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -23570,7 +23573,7 @@
         <v>23</v>
       </c>
       <c r="H26">
-        <v>0.64</v>
+        <v>0.79700000000000004</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -23596,7 +23599,7 @@
         <v>32</v>
       </c>
       <c r="H27">
-        <v>2.1869999999999998</v>
+        <v>2.3119999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -23622,7 +23625,7 @@
         <v>30</v>
       </c>
       <c r="H28">
-        <v>1.1719999999999999</v>
+        <v>1.2969999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -23648,7 +23651,7 @@
         <v>28</v>
       </c>
       <c r="H29">
-        <v>0.875</v>
+        <v>0.79700000000000004</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -23674,7 +23677,7 @@
         <v>28</v>
       </c>
       <c r="H30">
-        <v>1.89</v>
+        <v>2.109</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -23700,7 +23703,7 @@
         <v>28</v>
       </c>
       <c r="H31">
-        <v>0.85899999999999999</v>
+        <v>0.93799999999999994</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -23726,7 +23729,7 @@
         <v>13</v>
       </c>
       <c r="H32">
-        <v>0.46800000000000003</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -23752,7 +23755,7 @@
         <v>14</v>
       </c>
       <c r="H33">
-        <v>0.35899999999999999</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -23778,7 +23781,7 @@
         <v>13</v>
       </c>
       <c r="H34">
-        <v>0.28100000000000003</v>
+        <v>0.26600000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -23804,7 +23807,7 @@
         <v>14</v>
       </c>
       <c r="H35">
-        <v>0.35899999999999999</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -23830,7 +23833,7 @@
         <v>13</v>
       </c>
       <c r="H36">
-        <v>0.312</v>
+        <v>0.32800000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -23856,7 +23859,7 @@
         <v>22</v>
       </c>
       <c r="H37">
-        <v>0.65600000000000003</v>
+        <v>0.70299999999999996</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -23882,7 +23885,7 @@
         <v>23</v>
       </c>
       <c r="H38">
-        <v>0.73399999999999999</v>
+        <v>0.81200000000000006</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -23908,7 +23911,7 @@
         <v>22</v>
       </c>
       <c r="H39">
-        <v>1.1559999999999999</v>
+        <v>1.2350000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -23934,7 +23937,7 @@
         <v>26</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -23960,7 +23963,7 @@
         <v>23</v>
       </c>
       <c r="H41">
-        <v>0.84399999999999997</v>
+        <v>0.92200000000000004</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -23986,7 +23989,7 @@
         <v>32</v>
       </c>
       <c r="H42">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -24012,7 +24015,7 @@
         <v>30</v>
       </c>
       <c r="H43">
-        <v>1.468</v>
+        <v>1.5309999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -24038,7 +24041,7 @@
         <v>28</v>
       </c>
       <c r="H44">
-        <v>1.0309999999999999</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -24064,7 +24067,7 @@
         <v>28</v>
       </c>
       <c r="H45">
-        <v>2.4060000000000001</v>
+        <v>2.516</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -24116,7 +24119,7 @@
         <v>13</v>
       </c>
       <c r="H47">
-        <v>0.57799999999999996</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -24142,7 +24145,7 @@
         <v>14</v>
       </c>
       <c r="H48">
-        <v>0.40600000000000003</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -24194,7 +24197,7 @@
         <v>14</v>
       </c>
       <c r="H50">
-        <v>0.375</v>
+        <v>0.40600000000000003</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -24220,7 +24223,7 @@
         <v>14</v>
       </c>
       <c r="H51">
-        <v>0.73499999999999999</v>
+        <v>0.70299999999999996</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -24246,7 +24249,7 @@
         <v>22</v>
       </c>
       <c r="H52">
-        <v>0.79700000000000004</v>
+        <v>0.85899999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -24272,7 +24275,7 @@
         <v>23</v>
       </c>
       <c r="H53">
-        <v>0.92200000000000004</v>
+        <v>1.0149999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -24298,7 +24301,7 @@
         <v>30</v>
       </c>
       <c r="H54">
-        <v>2.891</v>
+        <v>3.234</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -24324,7 +24327,7 @@
         <v>26</v>
       </c>
       <c r="H55">
-        <v>1.5780000000000001</v>
+        <v>1.6559999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -24350,7 +24353,7 @@
         <v>24</v>
       </c>
       <c r="H56">
-        <v>1.8440000000000001</v>
+        <v>1.9219999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -24376,7 +24379,7 @@
         <v>33</v>
       </c>
       <c r="H57">
-        <v>3.9380000000000002</v>
+        <v>4.3440000000000003</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -24402,7 +24405,7 @@
         <v>30</v>
       </c>
       <c r="H58">
-        <v>1.6870000000000001</v>
+        <v>1.766</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -24428,7 +24431,7 @@
         <v>38</v>
       </c>
       <c r="H59">
-        <v>9.1869999999999994</v>
+        <v>10.063000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -24454,7 +24457,7 @@
         <v>28</v>
       </c>
       <c r="H60">
-        <v>2.1880000000000002</v>
+        <v>2.3439999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -24480,7 +24483,7 @@
         <v>35</v>
       </c>
       <c r="H61">
-        <v>2.359</v>
+        <v>2.5310000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -24532,7 +24535,7 @@
         <v>14</v>
       </c>
       <c r="H63">
-        <v>0.51600000000000001</v>
+        <v>0.54700000000000004</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -24558,7 +24561,7 @@
         <v>17</v>
       </c>
       <c r="H64">
-        <v>0.76500000000000001</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -24584,7 +24587,7 @@
         <v>14</v>
       </c>
       <c r="H65">
-        <v>0.5</v>
+        <v>0.51500000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -24610,7 +24613,7 @@
         <v>14</v>
       </c>
       <c r="H66">
-        <v>0.84399999999999997</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -24636,7 +24639,7 @@
         <v>28</v>
       </c>
       <c r="H67">
-        <v>2.7029999999999998</v>
+        <v>2.891</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -24662,7 +24665,7 @@
         <v>23</v>
       </c>
       <c r="H68">
-        <v>1.0940000000000001</v>
+        <v>1.2030000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -24688,7 +24691,7 @@
         <v>30</v>
       </c>
       <c r="H69">
-        <v>3.5</v>
+        <v>3.766</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -24714,7 +24717,7 @@
         <v>26</v>
       </c>
       <c r="H70">
-        <v>1.8440000000000001</v>
+        <v>2.016</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -24740,7 +24743,7 @@
         <v>24</v>
       </c>
       <c r="H71">
-        <v>2.391</v>
+        <v>2.6720000000000002</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -24766,7 +24769,7 @@
         <v>35</v>
       </c>
       <c r="H72">
-        <v>3.9540000000000002</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -24792,7 +24795,7 @@
         <v>30</v>
       </c>
       <c r="H73">
-        <v>2.11</v>
+        <v>2.375</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -24818,7 +24821,7 @@
         <v>38</v>
       </c>
       <c r="H74">
-        <v>8.875</v>
+        <v>9.657</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -24844,7 +24847,7 @@
         <v>29</v>
       </c>
       <c r="H75">
-        <v>3.891</v>
+        <v>4.0940000000000003</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -24870,7 +24873,7 @@
         <v>35</v>
       </c>
       <c r="H76">
-        <v>3.0150000000000001</v>
+        <v>3.3279999999999998</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -24896,7 +24899,7 @@
         <v>16</v>
       </c>
       <c r="H77">
-        <v>0.73499999999999999</v>
+        <v>0.76500000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -24922,7 +24925,7 @@
         <v>14</v>
       </c>
       <c r="H78">
-        <v>0.5</v>
+        <v>0.59399999999999997</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -24948,7 +24951,7 @@
         <v>17</v>
       </c>
       <c r="H79">
-        <v>0.84399999999999997</v>
+        <v>0.93700000000000006</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -24974,7 +24977,7 @@
         <v>14</v>
       </c>
       <c r="H80">
-        <v>0.54700000000000004</v>
+        <v>0.59299999999999997</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -25000,7 +25003,7 @@
         <v>14</v>
       </c>
       <c r="H81">
-        <v>0.96899999999999997</v>
+        <v>1.0940000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -25026,7 +25029,7 @@
         <v>28</v>
       </c>
       <c r="H82">
-        <v>3.3439999999999999</v>
+        <v>3.5939999999999999</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -25052,7 +25055,7 @@
         <v>23</v>
       </c>
       <c r="H83">
-        <v>1.282</v>
+        <v>1.375</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -25078,7 +25081,7 @@
         <v>30</v>
       </c>
       <c r="H84">
-        <v>2.5</v>
+        <v>2.5470000000000002</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -25104,7 +25107,7 @@
         <v>28</v>
       </c>
       <c r="H85">
-        <v>6.875</v>
+        <v>7.5309999999999997</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -25130,7 +25133,7 @@
         <v>24</v>
       </c>
       <c r="H86">
-        <v>2.734</v>
+        <v>2.984</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -25156,7 +25159,7 @@
         <v>35</v>
       </c>
       <c r="H87">
-        <v>2.8279999999999998</v>
+        <v>3.0630000000000002</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -25182,7 +25185,7 @@
         <v>30</v>
       </c>
       <c r="H88">
-        <v>1.9219999999999999</v>
+        <v>2.0939999999999999</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -25208,7 +25211,7 @@
         <v>38</v>
       </c>
       <c r="H89">
-        <v>10.859</v>
+        <v>11.952999999999999</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -25234,7 +25237,7 @@
         <v>31</v>
       </c>
       <c r="H90">
-        <v>1.9850000000000001</v>
+        <v>2.0939999999999999</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -25260,7 +25263,7 @@
         <v>35</v>
       </c>
       <c r="H91">
-        <v>3.5459999999999998</v>
+        <v>3.9380000000000002</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -25286,7 +25289,7 @@
         <v>12</v>
       </c>
       <c r="H92">
-        <v>4.5999999999999999E-2</v>
+        <v>6.3E-2</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -25312,7 +25315,7 @@
         <v>14</v>
       </c>
       <c r="H93">
-        <v>7.8E-2</v>
+        <v>6.2E-2</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -25338,7 +25341,7 @@
         <v>13</v>
       </c>
       <c r="H94">
-        <v>7.8E-2</v>
+        <v>6.2E-2</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -25390,7 +25393,7 @@
         <v>8</v>
       </c>
       <c r="H96">
-        <v>4.7E-2</v>
+        <v>7.8E-2</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -25416,7 +25419,7 @@
         <v>22</v>
       </c>
       <c r="H97">
-        <v>0.109</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -25442,7 +25445,7 @@
         <v>23</v>
       </c>
       <c r="H98">
-        <v>0.109</v>
+        <v>9.4E-2</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -25468,7 +25471,7 @@
         <v>20</v>
       </c>
       <c r="H99">
-        <v>9.2999999999999999E-2</v>
+        <v>7.8E-2</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -25494,7 +25497,7 @@
         <v>11</v>
       </c>
       <c r="H100">
-        <v>7.8E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -25520,7 +25523,7 @@
         <v>12</v>
       </c>
       <c r="H101">
-        <v>7.8E-2</v>
+        <v>6.2E-2</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -25546,7 +25549,7 @@
         <v>29</v>
       </c>
       <c r="H102">
-        <v>0.14000000000000001</v>
+        <v>0.14099999999999999</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -25572,7 +25575,7 @@
         <v>27</v>
       </c>
       <c r="H103">
-        <v>0.11</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -25598,7 +25601,7 @@
         <v>28</v>
       </c>
       <c r="H104">
-        <v>0.14000000000000001</v>
+        <v>0.156</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -25624,7 +25627,7 @@
         <v>19</v>
       </c>
       <c r="H105">
-        <v>7.8E-2</v>
+        <v>6.2E-2</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -25676,7 +25679,7 @@
         <v>12</v>
       </c>
       <c r="H107">
-        <v>7.8E-2</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -25702,7 +25705,7 @@
         <v>14</v>
       </c>
       <c r="H108">
-        <v>0.125</v>
+        <v>9.2999999999999999E-2</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -25728,7 +25731,7 @@
         <v>13</v>
       </c>
       <c r="H109">
-        <v>6.2E-2</v>
+        <v>9.4E-2</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -25754,7 +25757,7 @@
         <v>12</v>
       </c>
       <c r="H110">
-        <v>9.4E-2</v>
+        <v>7.8E-2</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -25780,7 +25783,7 @@
         <v>13</v>
       </c>
       <c r="H111">
-        <v>9.2999999999999999E-2</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -25832,7 +25835,7 @@
         <v>23</v>
       </c>
       <c r="H113">
-        <v>0.20300000000000001</v>
+        <v>0.23499999999999999</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -25884,7 +25887,7 @@
         <v>19</v>
       </c>
       <c r="H115">
-        <v>0.23499999999999999</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -25910,7 +25913,7 @@
         <v>23</v>
       </c>
       <c r="H116">
-        <v>0.187</v>
+        <v>0.20300000000000001</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -25936,7 +25939,7 @@
         <v>29</v>
       </c>
       <c r="H117">
-        <v>0.25</v>
+        <v>0.26600000000000001</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -25962,7 +25965,7 @@
         <v>27</v>
       </c>
       <c r="H118">
-        <v>0.188</v>
+        <v>0.20300000000000001</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -25988,7 +25991,7 @@
         <v>28</v>
       </c>
       <c r="H119">
-        <v>0.28100000000000003</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -26014,7 +26017,7 @@
         <v>24</v>
       </c>
       <c r="H120">
-        <v>0.48399999999999999</v>
+        <v>0.51500000000000001</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -26066,7 +26069,7 @@
         <v>12</v>
       </c>
       <c r="H122">
-        <v>0.11</v>
+        <v>0.14099999999999999</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -26118,7 +26121,7 @@
         <v>13</v>
       </c>
       <c r="H124">
-        <v>0.109</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -26144,7 +26147,7 @@
         <v>14</v>
       </c>
       <c r="H125">
-        <v>0.14000000000000001</v>
+        <v>0.17199999999999999</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -26170,7 +26173,7 @@
         <v>13</v>
       </c>
       <c r="H126">
-        <v>9.4E-2</v>
+        <v>0.156</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -26196,7 +26199,7 @@
         <v>22</v>
       </c>
       <c r="H127">
-        <v>0.23499999999999999</v>
+        <v>0.26600000000000001</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -26222,7 +26225,7 @@
         <v>23</v>
       </c>
       <c r="H128">
-        <v>0.312</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -26248,7 +26251,7 @@
         <v>20</v>
       </c>
       <c r="H129">
-        <v>0.20300000000000001</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -26274,7 +26277,7 @@
         <v>21</v>
       </c>
       <c r="H130">
-        <v>0.25</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -26326,7 +26329,7 @@
         <v>32</v>
       </c>
       <c r="H132">
-        <v>0.85899999999999999</v>
+        <v>0.84399999999999997</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -26352,7 +26355,7 @@
         <v>27</v>
       </c>
       <c r="H133">
-        <v>0.39</v>
+        <v>0.46800000000000003</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -26378,7 +26381,7 @@
         <v>28</v>
       </c>
       <c r="H134">
-        <v>0.34300000000000003</v>
+        <v>0.39100000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -26404,7 +26407,7 @@
         <v>26</v>
       </c>
       <c r="H135">
-        <v>0.313</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -26430,7 +26433,7 @@
         <v>28</v>
       </c>
       <c r="H136">
-        <v>0.375</v>
+        <v>0.39100000000000001</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -26456,7 +26459,7 @@
         <v>12</v>
       </c>
       <c r="H137">
-        <v>0.14099999999999999</v>
+        <v>0.156</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -26482,7 +26485,7 @@
         <v>14</v>
       </c>
       <c r="H138">
-        <v>0.218</v>
+        <v>0.187</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -26508,7 +26511,7 @@
         <v>13</v>
       </c>
       <c r="H139">
-        <v>9.4E-2</v>
+        <v>0.187</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -26534,7 +26537,7 @@
         <v>14</v>
       </c>
       <c r="H140">
-        <v>0.187</v>
+        <v>0.17199999999999999</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -26560,7 +26563,7 @@
         <v>13</v>
       </c>
       <c r="H141">
-        <v>0.14000000000000001</v>
+        <v>0.156</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -26612,7 +26615,7 @@
         <v>23</v>
       </c>
       <c r="H143">
-        <v>0.32800000000000001</v>
+        <v>0.42199999999999999</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -26638,7 +26641,7 @@
         <v>21</v>
       </c>
       <c r="H144">
-        <v>0.29699999999999999</v>
+        <v>0.26500000000000001</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -26664,7 +26667,7 @@
         <v>26</v>
       </c>
       <c r="H145">
-        <v>0.48399999999999999</v>
+        <v>0.57799999999999996</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -26690,7 +26693,7 @@
         <v>23</v>
       </c>
       <c r="H146">
-        <v>0.39100000000000001</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -26716,7 +26719,7 @@
         <v>32</v>
       </c>
       <c r="H147">
-        <v>1.234</v>
+        <v>1.359</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -26742,7 +26745,7 @@
         <v>30</v>
       </c>
       <c r="H148">
-        <v>0.60899999999999999</v>
+        <v>0.67200000000000004</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -26768,7 +26771,7 @@
         <v>28</v>
       </c>
       <c r="H149">
-        <v>0.48399999999999999</v>
+        <v>0.51600000000000001</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -26794,7 +26797,7 @@
         <v>28</v>
       </c>
       <c r="H150">
-        <v>1.2350000000000001</v>
+        <v>1.359</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -26820,7 +26823,7 @@
         <v>28</v>
       </c>
       <c r="H151">
-        <v>0.54700000000000004</v>
+        <v>0.57799999999999996</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -26846,7 +26849,7 @@
         <v>28</v>
       </c>
       <c r="H152">
-        <v>3.5779999999999998</v>
+        <v>4.032</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -26872,7 +26875,7 @@
         <v>25</v>
       </c>
       <c r="H153">
-        <v>2.6880000000000002</v>
+        <v>2.9220000000000002</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -26898,7 +26901,7 @@
         <v>28</v>
       </c>
       <c r="H154">
-        <v>4.3280000000000003</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -26924,7 +26927,7 @@
         <v>25</v>
       </c>
       <c r="H155">
-        <v>2.641</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -26950,7 +26953,7 @@
         <v>25</v>
       </c>
       <c r="H156">
-        <v>3.234</v>
+        <v>3.5470000000000002</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -26976,7 +26979,7 @@
         <v>45</v>
       </c>
       <c r="H157">
-        <v>13.156000000000001</v>
+        <v>14.202999999999999</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -27002,7 +27005,7 @@
         <v>41</v>
       </c>
       <c r="H158">
-        <v>8.4220000000000006</v>
+        <v>9.1869999999999994</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -27028,7 +27031,7 @@
         <v>39</v>
       </c>
       <c r="H159">
-        <v>10.688000000000001</v>
+        <v>11.75</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -27054,7 +27057,7 @@
         <v>41</v>
       </c>
       <c r="H160">
-        <v>7.7190000000000003</v>
+        <v>8.407</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -27080,7 +27083,7 @@
         <v>43</v>
       </c>
       <c r="H161">
-        <v>11.077999999999999</v>
+        <v>11.89</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -27106,7 +27109,7 @@
         <v>65</v>
       </c>
       <c r="H162">
-        <v>20.109000000000002</v>
+        <v>21.25</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -27132,7 +27135,7 @@
         <v>60</v>
       </c>
       <c r="H163">
-        <v>12.813000000000001</v>
+        <v>13.891</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -27158,7 +27161,7 @@
         <v>64</v>
       </c>
       <c r="H164">
-        <v>25.844000000000001</v>
+        <v>27.952999999999999</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
@@ -27184,7 +27187,7 @@
         <v>61</v>
       </c>
       <c r="H165">
-        <v>15.907</v>
+        <v>17.015000000000001</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -27210,7 +27213,7 @@
         <v>54</v>
       </c>
       <c r="H166">
-        <v>9.375</v>
+        <v>10.079000000000001</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -27236,7 +27239,7 @@
         <v>28</v>
       </c>
       <c r="H167">
-        <v>3.5</v>
+        <v>3.641</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
@@ -27262,7 +27265,7 @@
         <v>25</v>
       </c>
       <c r="H168">
-        <v>2.9689999999999999</v>
+        <v>3.2189999999999999</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -27288,7 +27291,7 @@
         <v>28</v>
       </c>
       <c r="H169">
-        <v>4.0309999999999997</v>
+        <v>4.3600000000000003</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -27314,7 +27317,7 @@
         <v>25</v>
       </c>
       <c r="H170">
-        <v>3.5630000000000002</v>
+        <v>3.7970000000000002</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
@@ -27340,7 +27343,7 @@
         <v>28</v>
       </c>
       <c r="H171">
-        <v>4.3600000000000003</v>
+        <v>4.5469999999999997</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
@@ -27366,7 +27369,7 @@
         <v>45</v>
       </c>
       <c r="H172">
-        <v>17.015999999999998</v>
+        <v>18.202999999999999</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -27392,7 +27395,7 @@
         <v>41</v>
       </c>
       <c r="H173">
-        <v>7.1879999999999997</v>
+        <v>7.7190000000000003</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -27418,7 +27421,7 @@
         <v>39</v>
       </c>
       <c r="H174">
-        <v>8.5619999999999994</v>
+        <v>9.0150000000000006</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -27444,7 +27447,7 @@
         <v>41</v>
       </c>
       <c r="H175">
-        <v>11.343999999999999</v>
+        <v>12.188000000000001</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
@@ -27470,7 +27473,7 @@
         <v>46</v>
       </c>
       <c r="H176">
-        <v>22.454000000000001</v>
+        <v>24.14</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
@@ -27496,7 +27499,7 @@
         <v>65</v>
       </c>
       <c r="H177">
-        <v>26.687999999999999</v>
+        <v>28.765000000000001</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -27522,7 +27525,7 @@
         <v>60</v>
       </c>
       <c r="H178">
-        <v>21.75</v>
+        <v>23.452999999999999</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -27548,7 +27551,7 @@
         <v>64</v>
       </c>
       <c r="H179">
-        <v>34.530999999999999</v>
+        <v>37.061999999999998</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -27574,7 +27577,7 @@
         <v>61</v>
       </c>
       <c r="H180">
-        <v>26.734000000000002</v>
+        <v>28.655999999999999</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -27600,7 +27603,7 @@
         <v>71</v>
       </c>
       <c r="H181">
-        <v>63.61</v>
+        <v>68.625</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -27626,7 +27629,7 @@
         <v>28</v>
       </c>
       <c r="H182">
-        <v>4.484</v>
+        <v>4.875</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -27652,7 +27655,7 @@
         <v>25</v>
       </c>
       <c r="H183">
-        <v>4.875</v>
+        <v>5.391</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -27678,7 +27681,7 @@
         <v>28</v>
       </c>
       <c r="H184">
-        <v>8.484</v>
+        <v>9.3439999999999994</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -27704,7 +27707,7 @@
         <v>25</v>
       </c>
       <c r="H185">
-        <v>3.2970000000000002</v>
+        <v>3.516</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
@@ -27730,7 +27733,7 @@
         <v>28</v>
       </c>
       <c r="H186">
-        <v>5.875</v>
+        <v>6.375</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -27756,7 +27759,7 @@
         <v>45</v>
       </c>
       <c r="H187">
-        <v>25.734999999999999</v>
+        <v>27.797000000000001</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
@@ -27782,7 +27785,7 @@
         <v>41</v>
       </c>
       <c r="H188">
-        <v>9.266</v>
+        <v>9.9369999999999994</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
@@ -27808,7 +27811,7 @@
         <v>39</v>
       </c>
       <c r="H189">
-        <v>11.829000000000001</v>
+        <v>12.875</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -27834,7 +27837,7 @@
         <v>41</v>
       </c>
       <c r="H190">
-        <v>22.062999999999999</v>
+        <v>23.609000000000002</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
@@ -27860,7 +27863,7 @@
         <v>46</v>
       </c>
       <c r="H191">
-        <v>18.297000000000001</v>
+        <v>19.702999999999999</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
@@ -27886,7 +27889,7 @@
         <v>65</v>
       </c>
       <c r="H192">
-        <v>24.047000000000001</v>
+        <v>26</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
@@ -27912,7 +27915,7 @@
         <v>60</v>
       </c>
       <c r="H193">
-        <v>21.484000000000002</v>
+        <v>23.234999999999999</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
@@ -27938,7 +27941,7 @@
         <v>64</v>
       </c>
       <c r="H194">
-        <v>20.969000000000001</v>
+        <v>22.812000000000001</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
@@ -27964,7 +27967,7 @@
         <v>61</v>
       </c>
       <c r="H195">
-        <v>27.734000000000002</v>
+        <v>30.109000000000002</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
@@ -27986,6 +27989,12 @@
       <c r="F196" t="s">
         <v>1</v>
       </c>
+      <c r="G196">
+        <v>71</v>
+      </c>
+      <c r="H196">
+        <v>126.625</v>
+      </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
@@ -28010,7 +28019,7 @@
         <v>28</v>
       </c>
       <c r="H197">
-        <v>9.0779999999999994</v>
+        <v>9.7189999999999994</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
@@ -28036,7 +28045,7 @@
         <v>25</v>
       </c>
       <c r="H198">
-        <v>4.3280000000000003</v>
+        <v>4.8129999999999997</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
@@ -28062,7 +28071,7 @@
         <v>28</v>
       </c>
       <c r="H199">
-        <v>9.9220000000000006</v>
+        <v>10.797000000000001</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
@@ -28088,7 +28097,7 @@
         <v>25</v>
       </c>
       <c r="H200">
-        <v>6.0940000000000003</v>
+        <v>6.375</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
@@ -28114,7 +28123,7 @@
         <v>28</v>
       </c>
       <c r="H201">
-        <v>7.1719999999999997</v>
+        <v>7.7649999999999997</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
@@ -28140,7 +28149,7 @@
         <v>45</v>
       </c>
       <c r="H202">
-        <v>34.844000000000001</v>
+        <v>37.25</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
@@ -28166,7 +28175,7 @@
         <v>41</v>
       </c>
       <c r="H203">
-        <v>11.891</v>
+        <v>12.891</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
@@ -28192,7 +28201,7 @@
         <v>39</v>
       </c>
       <c r="H204">
-        <v>20.577999999999999</v>
+        <v>22.11</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
@@ -28218,7 +28227,7 @@
         <v>41</v>
       </c>
       <c r="H205">
-        <v>21.702999999999999</v>
+        <v>23.25</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
@@ -28244,7 +28253,7 @@
         <v>46</v>
       </c>
       <c r="H206">
-        <v>27.797000000000001</v>
+        <v>29.86</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
@@ -28270,7 +28279,7 @@
         <v>65</v>
       </c>
       <c r="H207">
-        <v>38.969000000000001</v>
+        <v>42.625</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
@@ -28296,7 +28305,7 @@
         <v>60</v>
       </c>
       <c r="H208">
-        <v>18.984000000000002</v>
+        <v>20.812000000000001</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -28322,7 +28331,7 @@
         <v>64</v>
       </c>
       <c r="H209">
-        <v>27.359000000000002</v>
+        <v>29.625</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
@@ -28348,7 +28357,7 @@
         <v>61</v>
       </c>
       <c r="H210">
-        <v>41.484000000000002</v>
+        <v>45.155999999999999</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -28374,7 +28383,7 @@
         <v>71</v>
       </c>
       <c r="H211">
-        <v>45.905999999999999</v>
+        <v>50.030999999999999</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
@@ -28400,7 +28409,7 @@
         <v>28</v>
       </c>
       <c r="H212">
-        <v>7.3280000000000003</v>
+        <v>7.7809999999999997</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
@@ -28426,7 +28435,7 @@
         <v>25</v>
       </c>
       <c r="H213">
-        <v>8.391</v>
+        <v>9.0790000000000006</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
@@ -28452,7 +28461,7 @@
         <v>28</v>
       </c>
       <c r="H214">
-        <v>7.25</v>
+        <v>7.9530000000000003</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
@@ -28478,7 +28487,7 @@
         <v>25</v>
       </c>
       <c r="H215">
-        <v>7.7190000000000003</v>
+        <v>8.125</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
@@ -28504,7 +28513,7 @@
         <v>28</v>
       </c>
       <c r="H216">
-        <v>19.234000000000002</v>
+        <v>20.422000000000001</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
@@ -28530,7 +28539,7 @@
         <v>45</v>
       </c>
       <c r="H217">
-        <v>56.281999999999996</v>
+        <v>59.844000000000001</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
@@ -28556,7 +28565,7 @@
         <v>41</v>
       </c>
       <c r="H218">
-        <v>31.812000000000001</v>
+        <v>34.094000000000001</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
@@ -28582,7 +28591,7 @@
         <v>39</v>
       </c>
       <c r="H219">
-        <v>23.047000000000001</v>
+        <v>24.780999999999999</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
@@ -28608,7 +28617,7 @@
         <v>41</v>
       </c>
       <c r="H220">
-        <v>13.797000000000001</v>
+        <v>14.843999999999999</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
@@ -28634,7 +28643,7 @@
         <v>46</v>
       </c>
       <c r="H221">
-        <v>29.469000000000001</v>
+        <v>31.484999999999999</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
@@ -28660,7 +28669,7 @@
         <v>65</v>
       </c>
       <c r="H222">
-        <v>86.906000000000006</v>
+        <v>94.046999999999997</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
@@ -28686,7 +28695,7 @@
         <v>60</v>
       </c>
       <c r="H223">
-        <v>57.796999999999997</v>
+        <v>62.984999999999999</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
@@ -28708,6 +28717,12 @@
       <c r="F224" t="s">
         <v>1</v>
       </c>
+      <c r="G224">
+        <v>64</v>
+      </c>
+      <c r="H224">
+        <v>131.06299999999999</v>
+      </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
@@ -28732,7 +28747,7 @@
         <v>61</v>
       </c>
       <c r="H225">
-        <v>61</v>
+        <v>66.656000000000006</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
@@ -28758,7 +28773,7 @@
         <v>71</v>
       </c>
       <c r="H226">
-        <v>59.984999999999999</v>
+        <v>66.188000000000002</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
@@ -28784,7 +28799,7 @@
         <v>28</v>
       </c>
       <c r="H227">
-        <v>8.5310000000000006</v>
+        <v>9.14</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
@@ -28810,7 +28825,7 @@
         <v>30</v>
       </c>
       <c r="H228">
-        <v>19.890999999999998</v>
+        <v>21.187999999999999</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
@@ -28836,7 +28851,7 @@
         <v>28</v>
       </c>
       <c r="H229">
-        <v>15.5</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
@@ -28862,7 +28877,7 @@
         <v>25</v>
       </c>
       <c r="H230">
-        <v>5.641</v>
+        <v>6.0469999999999997</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
@@ -28888,7 +28903,7 @@
         <v>28</v>
       </c>
       <c r="H231">
-        <v>12.734999999999999</v>
+        <v>13.734999999999999</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
@@ -28914,7 +28929,7 @@
         <v>45</v>
       </c>
       <c r="H232">
-        <v>26.719000000000001</v>
+        <v>29.015999999999998</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
@@ -28940,7 +28955,7 @@
         <v>50</v>
       </c>
       <c r="H233">
-        <v>30.36</v>
+        <v>32.734000000000002</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
@@ -28966,7 +28981,7 @@
         <v>41</v>
       </c>
       <c r="H234">
-        <v>15.781000000000001</v>
+        <v>17.047000000000001</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
@@ -28992,7 +29007,7 @@
         <v>41</v>
       </c>
       <c r="H235">
-        <v>17.265999999999998</v>
+        <v>18.780999999999999</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
@@ -29018,7 +29033,7 @@
         <v>46</v>
       </c>
       <c r="H236">
-        <v>38.171999999999997</v>
+        <v>41.125</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
@@ -29044,7 +29059,7 @@
         <v>65</v>
       </c>
       <c r="H237">
-        <v>38.594000000000001</v>
+        <v>42.296999999999997</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
@@ -29066,6 +29081,12 @@
       <c r="F238" t="s">
         <v>1</v>
       </c>
+      <c r="G238">
+        <v>74</v>
+      </c>
+      <c r="H238">
+        <v>123.64100000000001</v>
+      </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
@@ -29086,6 +29107,12 @@
       <c r="F239" t="s">
         <v>1</v>
       </c>
+      <c r="G239">
+        <v>72</v>
+      </c>
+      <c r="H239">
+        <v>135.25</v>
+      </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
@@ -29110,7 +29137,7 @@
         <v>61</v>
       </c>
       <c r="H240">
-        <v>74.281000000000006</v>
+        <v>80.531000000000006</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
@@ -29136,7 +29163,7 @@
         <v>71</v>
       </c>
       <c r="H241">
-        <v>54.75</v>
+        <v>60.094000000000001</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
@@ -29162,7 +29189,7 @@
         <v>19</v>
       </c>
       <c r="H242">
-        <v>0.81200000000000006</v>
+        <v>0.84399999999999997</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
@@ -29188,7 +29215,7 @@
         <v>24</v>
       </c>
       <c r="H243">
-        <v>0.84399999999999997</v>
+        <v>0.92200000000000004</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
@@ -29214,7 +29241,7 @@
         <v>26</v>
       </c>
       <c r="H244">
-        <v>0.86</v>
+        <v>0.98399999999999999</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
@@ -29240,7 +29267,7 @@
         <v>14</v>
       </c>
       <c r="H245">
-        <v>0.73499999999999999</v>
+        <v>0.78100000000000003</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
@@ -29266,7 +29293,7 @@
         <v>13</v>
       </c>
       <c r="H246">
-        <v>0.75</v>
+        <v>0.78100000000000003</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
@@ -29292,7 +29319,7 @@
         <v>31</v>
       </c>
       <c r="H247">
-        <v>1.0629999999999999</v>
+        <v>1.0780000000000001</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
@@ -29318,7 +29345,7 @@
         <v>37</v>
       </c>
       <c r="H248">
-        <v>1.1399999999999999</v>
+        <v>1.2030000000000001</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
@@ -29344,7 +29371,7 @@
         <v>38</v>
       </c>
       <c r="H249">
-        <v>1.125</v>
+        <v>1.3440000000000001</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
@@ -29370,7 +29397,7 @@
         <v>22</v>
       </c>
       <c r="H250">
-        <v>1.0149999999999999</v>
+        <v>1.0469999999999999</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
@@ -29396,7 +29423,7 @@
         <v>19</v>
       </c>
       <c r="H251">
-        <v>0.82799999999999996</v>
+        <v>0.89100000000000001</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
@@ -29422,7 +29449,7 @@
         <v>47</v>
       </c>
       <c r="H252">
-        <v>1.4690000000000001</v>
+        <v>1.532</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
@@ -29448,7 +29475,7 @@
         <v>57</v>
       </c>
       <c r="H253">
-        <v>1.796</v>
+        <v>1.9219999999999999</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
@@ -29474,7 +29501,7 @@
         <v>64</v>
       </c>
       <c r="H254">
-        <v>3</v>
+        <v>3.2349999999999999</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
@@ -29500,7 +29527,7 @@
         <v>34</v>
       </c>
       <c r="H255">
-        <v>1.109</v>
+        <v>1.0940000000000001</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
@@ -29526,7 +29553,7 @@
         <v>26</v>
       </c>
       <c r="H256">
-        <v>0.95399999999999996</v>
+        <v>1.0469999999999999</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
@@ -29552,7 +29579,7 @@
         <v>20</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>1.0629999999999999</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
@@ -29578,7 +29605,7 @@
         <v>24</v>
       </c>
       <c r="H258">
-        <v>1.079</v>
+        <v>1.234</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
@@ -29604,7 +29631,7 @@
         <v>26</v>
       </c>
       <c r="H259">
-        <v>1.2030000000000001</v>
+        <v>1.2809999999999999</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
@@ -29630,7 +29657,7 @@
         <v>23</v>
       </c>
       <c r="H260">
-        <v>1.0149999999999999</v>
+        <v>1.125</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
@@ -29656,7 +29683,7 @@
         <v>25</v>
       </c>
       <c r="H261">
-        <v>1.25</v>
+        <v>1.3120000000000001</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
@@ -29682,7 +29709,7 @@
         <v>34</v>
       </c>
       <c r="H262">
-        <v>2.6869999999999998</v>
+        <v>2.9529999999999998</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
@@ -29708,7 +29735,7 @@
         <v>37</v>
       </c>
       <c r="H263">
-        <v>2.0470000000000002</v>
+        <v>2.0779999999999998</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
@@ -29734,7 +29761,7 @@
         <v>38</v>
       </c>
       <c r="H264">
-        <v>2.0150000000000001</v>
+        <v>2.2349999999999999</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
@@ -29760,7 +29787,7 @@
         <v>36</v>
       </c>
       <c r="H265">
-        <v>1.9690000000000001</v>
+        <v>2.109</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
@@ -29786,7 +29813,7 @@
         <v>43</v>
       </c>
       <c r="H266">
-        <v>2.64</v>
+        <v>2.907</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
@@ -29812,7 +29839,7 @@
         <v>47</v>
       </c>
       <c r="H267">
-        <v>2.641</v>
+        <v>2.984</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
@@ -29838,7 +29865,7 @@
         <v>57</v>
       </c>
       <c r="H268">
-        <v>3.4849999999999999</v>
+        <v>3.7970000000000002</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
@@ -29864,7 +29891,7 @@
         <v>64</v>
       </c>
       <c r="H269">
-        <v>5.4059999999999997</v>
+        <v>6.125</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
@@ -29890,7 +29917,7 @@
         <v>54</v>
       </c>
       <c r="H270">
-        <v>4.891</v>
+        <v>5.125</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
@@ -29916,7 +29943,7 @@
         <v>54</v>
       </c>
       <c r="H271">
-        <v>5.0469999999999997</v>
+        <v>5.5780000000000003</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
@@ -29942,7 +29969,7 @@
         <v>25</v>
       </c>
       <c r="H272">
-        <v>1.4379999999999999</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
@@ -29968,7 +29995,7 @@
         <v>24</v>
       </c>
       <c r="H273">
-        <v>1.4690000000000001</v>
+        <v>1.766</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
@@ -29994,7 +30021,7 @@
         <v>28</v>
       </c>
       <c r="H274">
-        <v>1.891</v>
+        <v>1.984</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
@@ -30020,7 +30047,7 @@
         <v>23</v>
       </c>
       <c r="H275">
-        <v>1.391</v>
+        <v>1.5629999999999999</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
@@ -30046,7 +30073,7 @@
         <v>25</v>
       </c>
       <c r="H276">
-        <v>1.6879999999999999</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
@@ -30072,7 +30099,7 @@
         <v>44</v>
       </c>
       <c r="H277">
-        <v>8.125</v>
+        <v>8.766</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
@@ -30098,7 +30125,7 @@
         <v>37</v>
       </c>
       <c r="H278">
-        <v>4.0149999999999997</v>
+        <v>4.359</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
@@ -30124,7 +30151,7 @@
         <v>39</v>
       </c>
       <c r="H279">
-        <v>3.86</v>
+        <v>4.3289999999999997</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
@@ -30150,7 +30177,7 @@
         <v>36</v>
       </c>
       <c r="H280">
-        <v>2.5939999999999999</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
@@ -30176,7 +30203,7 @@
         <v>43</v>
       </c>
       <c r="H281">
-        <v>4.141</v>
+        <v>4.3440000000000003</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
@@ -30202,7 +30229,7 @@
         <v>55</v>
       </c>
       <c r="H282">
-        <v>9.516</v>
+        <v>10.172000000000001</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
@@ -30228,7 +30255,7 @@
         <v>57</v>
       </c>
       <c r="H283">
-        <v>8.0779999999999994</v>
+        <v>8.907</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
@@ -30254,7 +30281,7 @@
         <v>64</v>
       </c>
       <c r="H284">
-        <v>6.9219999999999997</v>
+        <v>7.61</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
@@ -30280,7 +30307,7 @@
         <v>54</v>
       </c>
       <c r="H285">
-        <v>6.0940000000000003</v>
+        <v>6.5309999999999997</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
@@ -30306,7 +30333,7 @@
         <v>54</v>
       </c>
       <c r="H286">
-        <v>6.125</v>
+        <v>6.7190000000000003</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
@@ -30332,7 +30359,7 @@
         <v>25</v>
       </c>
       <c r="H287">
-        <v>1.8440000000000001</v>
+        <v>2.0310000000000001</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
@@ -30358,7 +30385,7 @@
         <v>25</v>
       </c>
       <c r="H288">
-        <v>1.9690000000000001</v>
+        <v>2.0470000000000002</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
@@ -30384,7 +30411,7 @@
         <v>28</v>
       </c>
       <c r="H289">
-        <v>2.2970000000000002</v>
+        <v>2.4380000000000002</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
@@ -30410,7 +30437,7 @@
         <v>25</v>
       </c>
       <c r="H290">
-        <v>1.954</v>
+        <v>2.0310000000000001</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
@@ -30436,7 +30463,7 @@
         <v>25</v>
       </c>
       <c r="H291">
-        <v>2.375</v>
+        <v>2.5470000000000002</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
@@ -30462,7 +30489,7 @@
         <v>44</v>
       </c>
       <c r="H292">
-        <v>7</v>
+        <v>7.7969999999999997</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
@@ -30488,7 +30515,7 @@
         <v>41</v>
       </c>
       <c r="H293">
-        <v>3.9220000000000002</v>
+        <v>4.3440000000000003</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
@@ -30514,7 +30541,7 @@
         <v>39</v>
       </c>
       <c r="H294">
-        <v>6.2039999999999997</v>
+        <v>6.9370000000000003</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
@@ -30540,7 +30567,7 @@
         <v>41</v>
       </c>
       <c r="H295">
-        <v>5.1719999999999997</v>
+        <v>5.532</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
@@ -30566,7 +30593,7 @@
         <v>43</v>
       </c>
       <c r="H296">
-        <v>12.5</v>
+        <v>13.657</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
@@ -30592,7 +30619,7 @@
         <v>60</v>
       </c>
       <c r="H297">
-        <v>14.782</v>
+        <v>16.015000000000001</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
@@ -30618,7 +30645,7 @@
         <v>60</v>
       </c>
       <c r="H298">
-        <v>8.9060000000000006</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
@@ -30644,7 +30671,7 @@
         <v>64</v>
       </c>
       <c r="H299">
-        <v>12.375</v>
+        <v>13.36</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
@@ -30670,7 +30697,7 @@
         <v>61</v>
       </c>
       <c r="H300">
-        <v>17.204000000000001</v>
+        <v>18.407</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
@@ -30696,7 +30723,7 @@
         <v>54</v>
       </c>
       <c r="H301">
-        <v>10.327999999999999</v>
+        <v>10.936999999999999</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
@@ -30722,7 +30749,7 @@
         <v>40</v>
       </c>
       <c r="H302">
-        <v>23.094000000000001</v>
+        <v>24.797000000000001</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
@@ -30748,7 +30775,7 @@
         <v>36</v>
       </c>
       <c r="H303">
-        <v>18.547000000000001</v>
+        <v>20.187999999999999</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
@@ -30774,7 +30801,7 @@
         <v>37</v>
       </c>
       <c r="H304">
-        <v>34.64</v>
+        <v>36.984000000000002</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
@@ -30800,7 +30827,7 @@
         <v>37</v>
       </c>
       <c r="H305">
-        <v>36.578000000000003</v>
+        <v>39.188000000000002</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
@@ -30826,7 +30853,7 @@
         <v>40</v>
       </c>
       <c r="H306">
-        <v>33.046999999999997</v>
+        <v>35.296999999999997</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
@@ -30848,6 +30875,12 @@
       <c r="F307" t="s">
         <v>1</v>
       </c>
+      <c r="G307">
+        <v>71</v>
+      </c>
+      <c r="H307">
+        <v>154</v>
+      </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
@@ -30872,7 +30905,7 @@
         <v>62</v>
       </c>
       <c r="H308">
-        <v>56.015999999999998</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
@@ -30898,7 +30931,7 @@
         <v>61</v>
       </c>
       <c r="H309">
-        <v>50.079000000000001</v>
+        <v>53.640999999999998</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
@@ -30924,7 +30957,7 @@
         <v>63</v>
       </c>
       <c r="H310">
-        <v>53.078000000000003</v>
+        <v>57.25</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
@@ -30946,6 +30979,12 @@
       <c r="F311" t="s">
         <v>1</v>
       </c>
+      <c r="G311">
+        <v>73</v>
+      </c>
+      <c r="H311">
+        <v>194.39099999999999</v>
+      </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
@@ -30986,6 +31025,12 @@
       <c r="F313" t="s">
         <v>1</v>
       </c>
+      <c r="G313">
+        <v>90</v>
+      </c>
+      <c r="H313">
+        <v>109.14100000000001</v>
+      </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
@@ -31010,7 +31055,7 @@
         <v>87</v>
       </c>
       <c r="H314">
-        <v>66.561999999999998</v>
+        <v>72.031000000000006</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
@@ -31032,6 +31077,12 @@
       <c r="F315" t="s">
         <v>1</v>
       </c>
+      <c r="G315">
+        <v>89</v>
+      </c>
+      <c r="H315">
+        <v>193.672</v>
+      </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
@@ -31052,6 +31103,12 @@
       <c r="F316" t="s">
         <v>1</v>
       </c>
+      <c r="G316">
+        <v>98</v>
+      </c>
+      <c r="H316">
+        <v>177.15600000000001</v>
+      </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
@@ -31076,7 +31133,7 @@
         <v>40</v>
       </c>
       <c r="H317">
-        <v>42.719000000000001</v>
+        <v>45.875</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.25">
@@ -31102,7 +31159,7 @@
         <v>36</v>
       </c>
       <c r="H318">
-        <v>23.530999999999999</v>
+        <v>25.484999999999999</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.25">
@@ -31128,7 +31185,7 @@
         <v>37</v>
       </c>
       <c r="H319">
-        <v>23.327999999999999</v>
+        <v>25.234999999999999</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
@@ -31154,7 +31211,7 @@
         <v>37</v>
       </c>
       <c r="H320">
-        <v>39.390999999999998</v>
+        <v>41.280999999999999</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
@@ -31180,7 +31237,7 @@
         <v>40</v>
       </c>
       <c r="H321">
-        <v>37.329000000000001</v>
+        <v>40.046999999999997</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
@@ -31206,7 +31263,7 @@
         <v>71</v>
       </c>
       <c r="H322">
-        <v>77.046999999999997</v>
+        <v>83.593000000000004</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.25">
@@ -31232,7 +31289,7 @@
         <v>62</v>
       </c>
       <c r="H323">
-        <v>90.031000000000006</v>
+        <v>97.25</v>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.25">
@@ -31258,7 +31315,7 @@
         <v>61</v>
       </c>
       <c r="H324">
-        <v>73.688000000000002</v>
+        <v>79.734999999999999</v>
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.25">
@@ -31284,7 +31341,7 @@
         <v>63</v>
       </c>
       <c r="H325">
-        <v>91.031000000000006</v>
+        <v>97.796999999999997</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.25">
@@ -31306,6 +31363,12 @@
       <c r="F326" t="s">
         <v>1</v>
       </c>
+      <c r="G326">
+        <v>73</v>
+      </c>
+      <c r="H326">
+        <v>170.73400000000001</v>
+      </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
@@ -31346,6 +31409,12 @@
       <c r="F328" t="s">
         <v>1</v>
       </c>
+      <c r="G328">
+        <v>90</v>
+      </c>
+      <c r="H328">
+        <v>191.25</v>
+      </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
@@ -31366,6 +31435,12 @@
       <c r="F329" t="s">
         <v>1</v>
       </c>
+      <c r="G329">
+        <v>87</v>
+      </c>
+      <c r="H329">
+        <v>148.21799999999999</v>
+      </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
@@ -31386,6 +31461,12 @@
       <c r="F330" t="s">
         <v>1</v>
       </c>
+      <c r="G330">
+        <v>89</v>
+      </c>
+      <c r="H330">
+        <v>219.53100000000001</v>
+      </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
@@ -31430,7 +31511,7 @@
         <v>40</v>
       </c>
       <c r="H332">
-        <v>69.125</v>
+        <v>74.233999999999995</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.25">
@@ -31456,7 +31537,7 @@
         <v>36</v>
       </c>
       <c r="H333">
-        <v>35.219000000000001</v>
+        <v>38</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.25">
@@ -31482,7 +31563,7 @@
         <v>37</v>
       </c>
       <c r="H334">
-        <v>37.546999999999997</v>
+        <v>40</v>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.25">
@@ -31508,7 +31589,7 @@
         <v>37</v>
       </c>
       <c r="H335">
-        <v>32.203000000000003</v>
+        <v>34.405999999999999</v>
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.25">
@@ -31534,7 +31615,7 @@
         <v>40</v>
       </c>
       <c r="H336">
-        <v>69.766000000000005</v>
+        <v>74.218999999999994</v>
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
@@ -31556,6 +31637,12 @@
       <c r="F337" t="s">
         <v>1</v>
       </c>
+      <c r="G337">
+        <v>71</v>
+      </c>
+      <c r="H337">
+        <v>114.98399999999999</v>
+      </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
@@ -31576,6 +31663,12 @@
       <c r="F338" t="s">
         <v>1</v>
       </c>
+      <c r="G338">
+        <v>62</v>
+      </c>
+      <c r="H338">
+        <v>184.64099999999999</v>
+      </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
@@ -31596,6 +31689,12 @@
       <c r="F339" t="s">
         <v>1</v>
       </c>
+      <c r="G339">
+        <v>61</v>
+      </c>
+      <c r="H339">
+        <v>181.64</v>
+      </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
@@ -31620,7 +31719,7 @@
         <v>63</v>
       </c>
       <c r="H340">
-        <v>51.219000000000001</v>
+        <v>55.515999999999998</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.25">
@@ -31642,6 +31741,12 @@
       <c r="F341" t="s">
         <v>1</v>
       </c>
+      <c r="G341">
+        <v>73</v>
+      </c>
+      <c r="H341">
+        <v>192.96899999999999</v>
+      </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
@@ -31662,6 +31767,12 @@
       <c r="F342" t="s">
         <v>1</v>
       </c>
+      <c r="G342">
+        <v>100</v>
+      </c>
+      <c r="H342">
+        <v>133.73400000000001</v>
+      </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
@@ -31722,6 +31833,12 @@
       <c r="F345" t="s">
         <v>1</v>
       </c>
+      <c r="G345">
+        <v>89</v>
+      </c>
+      <c r="H345">
+        <v>276.20299999999997</v>
+      </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
@@ -31742,6 +31859,12 @@
       <c r="F346" t="s">
         <v>1</v>
       </c>
+      <c r="G346">
+        <v>98</v>
+      </c>
+      <c r="H346">
+        <v>129.46899999999999</v>
+      </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
@@ -31766,7 +31889,7 @@
         <v>40</v>
       </c>
       <c r="H347">
-        <v>66.938000000000002</v>
+        <v>71.703000000000003</v>
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.25">
@@ -31792,7 +31915,7 @@
         <v>36</v>
       </c>
       <c r="H348">
-        <v>38.593000000000004</v>
+        <v>41.453000000000003</v>
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.25">
@@ -31818,7 +31941,7 @@
         <v>37</v>
       </c>
       <c r="H349">
-        <v>58.015999999999998</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.25">
@@ -31844,7 +31967,7 @@
         <v>37</v>
       </c>
       <c r="H350">
-        <v>62</v>
+        <v>66.391000000000005</v>
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.25">
@@ -31870,7 +31993,7 @@
         <v>40</v>
       </c>
       <c r="H351">
-        <v>64.233999999999995</v>
+        <v>68.891000000000005</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.25">
@@ -31892,6 +32015,12 @@
       <c r="F352" t="s">
         <v>1</v>
       </c>
+      <c r="G352">
+        <v>71</v>
+      </c>
+      <c r="H352">
+        <v>160</v>
+      </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
@@ -31912,6 +32041,12 @@
       <c r="F353" t="s">
         <v>1</v>
       </c>
+      <c r="G353">
+        <v>62</v>
+      </c>
+      <c r="H353">
+        <v>142.31299999999999</v>
+      </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
@@ -31952,6 +32087,12 @@
       <c r="F355" t="s">
         <v>1</v>
       </c>
+      <c r="G355">
+        <v>63</v>
+      </c>
+      <c r="H355">
+        <v>141.047</v>
+      </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
@@ -31992,6 +32133,12 @@
       <c r="F357" t="s">
         <v>1</v>
       </c>
+      <c r="G357">
+        <v>100</v>
+      </c>
+      <c r="H357">
+        <v>254.10900000000001</v>
+      </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
@@ -32072,6 +32219,12 @@
       <c r="F361" t="s">
         <v>1</v>
       </c>
+      <c r="G361">
+        <v>98</v>
+      </c>
+      <c r="H361">
+        <v>191.89</v>
+      </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
@@ -32096,7 +32249,7 @@
         <v>40</v>
       </c>
       <c r="H362">
-        <v>39.704000000000001</v>
+        <v>42.421999999999997</v>
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.25">
@@ -32122,7 +32275,7 @@
         <v>36</v>
       </c>
       <c r="H363">
-        <v>63.203000000000003</v>
+        <v>67.608999999999995</v>
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.25">
@@ -32148,7 +32301,7 @@
         <v>37</v>
       </c>
       <c r="H364">
-        <v>84.093999999999994</v>
+        <v>89.641000000000005</v>
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.25">
@@ -32170,6 +32323,12 @@
       <c r="F365" t="s">
         <v>1</v>
       </c>
+      <c r="G365">
+        <v>37</v>
+      </c>
+      <c r="H365">
+        <v>102.375</v>
+      </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
@@ -32190,6 +32349,12 @@
       <c r="F366" t="s">
         <v>1</v>
       </c>
+      <c r="G366">
+        <v>40</v>
+      </c>
+      <c r="H366">
+        <v>116.23399999999999</v>
+      </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
@@ -32234,7 +32399,7 @@
         <v>62</v>
       </c>
       <c r="H368">
-        <v>74.171999999999997</v>
+        <v>79.561999999999998</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.25">
@@ -32256,6 +32421,12 @@
       <c r="F369" t="s">
         <v>1</v>
       </c>
+      <c r="G369">
+        <v>61</v>
+      </c>
+      <c r="H369">
+        <v>103.828</v>
+      </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
@@ -32276,6 +32447,12 @@
       <c r="F370" t="s">
         <v>1</v>
       </c>
+      <c r="G370">
+        <v>63</v>
+      </c>
+      <c r="H370">
+        <v>244.797</v>
+      </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
@@ -32336,6 +32513,12 @@
       <c r="F373" t="s">
         <v>1</v>
       </c>
+      <c r="G373">
+        <v>90</v>
+      </c>
+      <c r="H373">
+        <v>154.15700000000001</v>
+      </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
@@ -32356,6 +32539,12 @@
       <c r="F374" t="s">
         <v>1</v>
       </c>
+      <c r="G374">
+        <v>87</v>
+      </c>
+      <c r="H374">
+        <v>177.46899999999999</v>
+      </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
@@ -32376,6 +32565,12 @@
       <c r="F375" t="s">
         <v>1</v>
       </c>
+      <c r="G375">
+        <v>89</v>
+      </c>
+      <c r="H375">
+        <v>202.48400000000001</v>
+      </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
@@ -32420,7 +32615,7 @@
         <v>40</v>
       </c>
       <c r="H377">
-        <v>53.984999999999999</v>
+        <v>57.921999999999997</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.25">
@@ -32446,7 +32641,7 @@
         <v>36</v>
       </c>
       <c r="H378">
-        <v>31.187999999999999</v>
+        <v>33.125</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.25">
@@ -32472,7 +32667,7 @@
         <v>37</v>
       </c>
       <c r="H379">
-        <v>66.906999999999996</v>
+        <v>71.858999999999995</v>
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.25">
@@ -32498,7 +32693,7 @@
         <v>37</v>
       </c>
       <c r="H380">
-        <v>83.266000000000005</v>
+        <v>88.563000000000002</v>
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.25">
@@ -32524,7 +32719,7 @@
         <v>40</v>
       </c>
       <c r="H381">
-        <v>59.234000000000002</v>
+        <v>63.375</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.25">
@@ -32566,6 +32761,12 @@
       <c r="F383" t="s">
         <v>1</v>
       </c>
+      <c r="G383">
+        <v>62</v>
+      </c>
+      <c r="H383">
+        <v>126.03100000000001</v>
+      </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
@@ -32606,6 +32807,12 @@
       <c r="F385" t="s">
         <v>1</v>
       </c>
+      <c r="G385">
+        <v>63</v>
+      </c>
+      <c r="H385">
+        <v>142.43700000000001</v>
+      </c>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
@@ -32626,6 +32833,12 @@
       <c r="F386" t="s">
         <v>1</v>
       </c>
+      <c r="G386">
+        <v>73</v>
+      </c>
+      <c r="H386">
+        <v>281.31299999999999</v>
+      </c>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
@@ -32666,6 +32879,12 @@
       <c r="F388" t="s">
         <v>1</v>
       </c>
+      <c r="G388">
+        <v>90</v>
+      </c>
+      <c r="H388">
+        <v>196</v>
+      </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
@@ -32750,7 +32969,7 @@
         <v>32</v>
       </c>
       <c r="H392">
-        <v>4.625</v>
+        <v>4.9530000000000003</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.25">
@@ -32776,7 +32995,7 @@
         <v>31</v>
       </c>
       <c r="H393">
-        <v>4.657</v>
+        <v>5.0309999999999997</v>
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.25">
@@ -32802,7 +33021,7 @@
         <v>22</v>
       </c>
       <c r="H394">
-        <v>4.6879999999999997</v>
+        <v>5.0789999999999997</v>
       </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.25">
@@ -32828,7 +33047,7 @@
         <v>32</v>
       </c>
       <c r="H395">
-        <v>5.0940000000000003</v>
+        <v>5.3440000000000003</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.25">
@@ -32854,7 +33073,7 @@
         <v>32</v>
       </c>
       <c r="H396">
-        <v>4.593</v>
+        <v>4.9379999999999997</v>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.25">
@@ -32880,7 +33099,7 @@
         <v>56</v>
       </c>
       <c r="H397">
-        <v>6.516</v>
+        <v>7.0629999999999997</v>
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.25">
@@ -32906,7 +33125,7 @@
         <v>61</v>
       </c>
       <c r="H398">
-        <v>7.0469999999999997</v>
+        <v>7.375</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.25">
@@ -32932,7 +33151,7 @@
         <v>39</v>
       </c>
       <c r="H399">
-        <v>5.6559999999999997</v>
+        <v>6.0469999999999997</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.25">
@@ -32958,7 +33177,7 @@
         <v>59</v>
       </c>
       <c r="H400">
-        <v>10.14</v>
+        <v>10.781000000000001</v>
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.25">
@@ -32984,7 +33203,7 @@
         <v>61</v>
       </c>
       <c r="H401">
-        <v>7.0149999999999997</v>
+        <v>7.4219999999999997</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.25">
@@ -33010,7 +33229,7 @@
         <v>79</v>
       </c>
       <c r="H402">
-        <v>12.438000000000001</v>
+        <v>13.734999999999999</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.25">
@@ -33036,7 +33255,7 @@
         <v>73</v>
       </c>
       <c r="H403">
-        <v>10.891</v>
+        <v>11.734999999999999</v>
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.25">
@@ -33062,7 +33281,7 @@
         <v>55</v>
       </c>
       <c r="H404">
-        <v>6.532</v>
+        <v>7.0789999999999997</v>
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.25">
@@ -33088,7 +33307,7 @@
         <v>81</v>
       </c>
       <c r="H405">
-        <v>9.766</v>
+        <v>10.375</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.25">
@@ -33114,7 +33333,7 @@
         <v>80</v>
       </c>
       <c r="H406">
-        <v>13.375</v>
+        <v>14.375</v>
       </c>
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.25">
@@ -33140,7 +33359,7 @@
         <v>32</v>
       </c>
       <c r="H407">
-        <v>5.5780000000000003</v>
+        <v>6</v>
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.25">
@@ -33166,7 +33385,7 @@
         <v>31</v>
       </c>
       <c r="H408">
-        <v>5.5149999999999997</v>
+        <v>5.9690000000000003</v>
       </c>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.25">
@@ -33192,7 +33411,7 @@
         <v>37</v>
       </c>
       <c r="H409">
-        <v>8.9540000000000006</v>
+        <v>9.6720000000000006</v>
       </c>
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.25">
@@ -33218,7 +33437,7 @@
         <v>37</v>
       </c>
       <c r="H410">
-        <v>8.0790000000000006</v>
+        <v>8.734</v>
       </c>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.25">
@@ -33244,7 +33463,7 @@
         <v>32</v>
       </c>
       <c r="H411">
-        <v>5.516</v>
+        <v>5.984</v>
       </c>
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.25">
@@ -33270,7 +33489,7 @@
         <v>56</v>
       </c>
       <c r="H412">
-        <v>16.719000000000001</v>
+        <v>18.359000000000002</v>
       </c>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.25">
@@ -33296,7 +33515,7 @@
         <v>61</v>
       </c>
       <c r="H413">
-        <v>15.656000000000001</v>
+        <v>16.704000000000001</v>
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.25">
@@ -33322,7 +33541,7 @@
         <v>61</v>
       </c>
       <c r="H414">
-        <v>29.077999999999999</v>
+        <v>31.234999999999999</v>
       </c>
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.25">
@@ -33348,7 +33567,7 @@
         <v>63</v>
       </c>
       <c r="H415">
-        <v>22.219000000000001</v>
+        <v>23.968</v>
       </c>
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.25">
@@ -33374,7 +33593,7 @@
         <v>61</v>
       </c>
       <c r="H416">
-        <v>21.625</v>
+        <v>23.125</v>
       </c>
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.25">
@@ -33400,7 +33619,7 @@
         <v>79</v>
       </c>
       <c r="H417">
-        <v>23.234000000000002</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.25">
@@ -33426,7 +33645,7 @@
         <v>73</v>
       </c>
       <c r="H418">
-        <v>17.344000000000001</v>
+        <v>18.547000000000001</v>
       </c>
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.25">
@@ -33452,7 +33671,7 @@
         <v>87</v>
       </c>
       <c r="H419">
-        <v>40.155999999999999</v>
+        <v>42.671999999999997</v>
       </c>
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.25">
@@ -33478,7 +33697,7 @@
         <v>89</v>
       </c>
       <c r="H420">
-        <v>28.984999999999999</v>
+        <v>31.344000000000001</v>
       </c>
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.25">
@@ -33504,7 +33723,7 @@
         <v>80</v>
       </c>
       <c r="H421">
-        <v>27</v>
+        <v>29.219000000000001</v>
       </c>
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.25">
@@ -33530,7 +33749,7 @@
         <v>32</v>
       </c>
       <c r="H422">
-        <v>7.359</v>
+        <v>8.016</v>
       </c>
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.25">
@@ -33556,7 +33775,7 @@
         <v>31</v>
       </c>
       <c r="H423">
-        <v>7.125</v>
+        <v>7.6879999999999997</v>
       </c>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.25">
@@ -33582,7 +33801,7 @@
         <v>37</v>
       </c>
       <c r="H424">
-        <v>9.5310000000000006</v>
+        <v>10.282</v>
       </c>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.25">
@@ -33608,7 +33827,7 @@
         <v>37</v>
       </c>
       <c r="H425">
-        <v>14.891</v>
+        <v>15.843999999999999</v>
       </c>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.25">
@@ -33634,7 +33853,7 @@
         <v>37</v>
       </c>
       <c r="H426">
-        <v>10.781000000000001</v>
+        <v>11.734999999999999</v>
       </c>
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.25">
@@ -33660,7 +33879,7 @@
         <v>56</v>
       </c>
       <c r="H427">
-        <v>34.296999999999997</v>
+        <v>37.031999999999996</v>
       </c>
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.25">
@@ -33686,7 +33905,7 @@
         <v>61</v>
       </c>
       <c r="H428">
-        <v>47.015000000000001</v>
+        <v>50.438000000000002</v>
       </c>
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.25">
@@ -33712,7 +33931,7 @@
         <v>61</v>
       </c>
       <c r="H429">
-        <v>56.188000000000002</v>
+        <v>60.531999999999996</v>
       </c>
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.25">
@@ -33738,7 +33957,7 @@
         <v>63</v>
       </c>
       <c r="H430">
-        <v>67.578000000000003</v>
+        <v>72.328000000000003</v>
       </c>
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.25">
@@ -33764,7 +33983,7 @@
         <v>62</v>
       </c>
       <c r="H431">
-        <v>28.905999999999999</v>
+        <v>31.187999999999999</v>
       </c>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.25">
@@ -33790,7 +34009,7 @@
         <v>79</v>
       </c>
       <c r="H432">
-        <v>54.921999999999997</v>
+        <v>59.281999999999996</v>
       </c>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.25">
@@ -33816,7 +34035,7 @@
         <v>73</v>
       </c>
       <c r="H433">
-        <v>60.969000000000001</v>
+        <v>65.718999999999994</v>
       </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.25">
@@ -33842,7 +34061,7 @@
         <v>87</v>
       </c>
       <c r="H434">
-        <v>31.875</v>
+        <v>34.75</v>
       </c>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.25">
@@ -33868,7 +34087,7 @@
         <v>89</v>
       </c>
       <c r="H435">
-        <v>74.453999999999994</v>
+        <v>81.141000000000005</v>
       </c>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.25">
@@ -33894,7 +34113,7 @@
         <v>87</v>
       </c>
       <c r="H436">
-        <v>87.578000000000003</v>
+        <v>94.438000000000002</v>
       </c>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.25">
@@ -33920,7 +34139,7 @@
         <v>40</v>
       </c>
       <c r="H437">
-        <v>18.437000000000001</v>
+        <v>19.312999999999999</v>
       </c>
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.25">
@@ -33946,7 +34165,7 @@
         <v>32</v>
       </c>
       <c r="H438">
-        <v>8.3439999999999994</v>
+        <v>9.0470000000000006</v>
       </c>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.25">
@@ -33972,7 +34191,7 @@
         <v>37</v>
       </c>
       <c r="H439">
-        <v>26.704000000000001</v>
+        <v>28.234000000000002</v>
       </c>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.25">
@@ -33998,7 +34217,7 @@
         <v>37</v>
       </c>
       <c r="H440">
-        <v>30.187000000000001</v>
+        <v>32.311999999999998</v>
       </c>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.25">
@@ -34024,7 +34243,7 @@
         <v>37</v>
       </c>
       <c r="H441">
-        <v>24.640999999999998</v>
+        <v>26.515000000000001</v>
       </c>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.25">
@@ -34050,7 +34269,7 @@
         <v>71</v>
       </c>
       <c r="H442">
-        <v>93.75</v>
+        <v>101.062</v>
       </c>
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.25">
@@ -34076,7 +34295,7 @@
         <v>61</v>
       </c>
       <c r="H443">
-        <v>29.937999999999999</v>
+        <v>32.171999999999997</v>
       </c>
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.25">
@@ -34098,6 +34317,12 @@
       <c r="F444" t="s">
         <v>1</v>
       </c>
+      <c r="G444">
+        <v>61</v>
+      </c>
+      <c r="H444">
+        <v>102.14100000000001</v>
+      </c>
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
@@ -34122,7 +34347,7 @@
         <v>63</v>
       </c>
       <c r="H445">
-        <v>58.375</v>
+        <v>63.203000000000003</v>
       </c>
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.25">
@@ -34148,7 +34373,7 @@
         <v>62</v>
       </c>
       <c r="H446">
-        <v>75</v>
+        <v>81.561999999999998</v>
       </c>
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.25">
@@ -34170,6 +34395,12 @@
       <c r="F447" t="s">
         <v>1</v>
       </c>
+      <c r="G447">
+        <v>100</v>
+      </c>
+      <c r="H447">
+        <v>113.64100000000001</v>
+      </c>
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
@@ -34194,7 +34425,7 @@
         <v>73</v>
       </c>
       <c r="H448">
-        <v>77.625</v>
+        <v>84.188000000000002</v>
       </c>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.25">
@@ -34216,6 +34447,12 @@
       <c r="F449" t="s">
         <v>1</v>
       </c>
+      <c r="G449">
+        <v>87</v>
+      </c>
+      <c r="H449">
+        <v>179.047</v>
+      </c>
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
@@ -34236,6 +34473,12 @@
       <c r="F450" t="s">
         <v>1</v>
       </c>
+      <c r="G450">
+        <v>89</v>
+      </c>
+      <c r="H450">
+        <v>207.65600000000001</v>
+      </c>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
@@ -34256,6 +34499,12 @@
       <c r="F451" t="s">
         <v>1</v>
       </c>
+      <c r="G451">
+        <v>87</v>
+      </c>
+      <c r="H451">
+        <v>167.68799999999999</v>
+      </c>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
@@ -34280,7 +34529,7 @@
         <v>14</v>
       </c>
       <c r="H452">
-        <v>0.125</v>
+        <v>0.156</v>
       </c>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.25">
@@ -34306,7 +34555,7 @@
         <v>14</v>
       </c>
       <c r="H453">
-        <v>0.17100000000000001</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.25">
@@ -34332,7 +34581,7 @@
         <v>20</v>
       </c>
       <c r="H454">
-        <v>0.51500000000000001</v>
+        <v>0.54700000000000004</v>
       </c>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.25">
@@ -34358,7 +34607,7 @@
         <v>18</v>
       </c>
       <c r="H455">
-        <v>0.28100000000000003</v>
+        <v>0.26600000000000001</v>
       </c>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.25">
@@ -34384,7 +34633,7 @@
         <v>13</v>
       </c>
       <c r="H456">
-        <v>0.14000000000000001</v>
+        <v>0.157</v>
       </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.25">
@@ -34410,7 +34659,7 @@
         <v>27</v>
       </c>
       <c r="H457">
-        <v>0.36</v>
+        <v>0.42199999999999999</v>
       </c>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.25">
@@ -34436,7 +34685,7 @@
         <v>23</v>
       </c>
       <c r="H458">
-        <v>0.29699999999999999</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.25">
@@ -34462,7 +34711,7 @@
         <v>37</v>
       </c>
       <c r="H459">
-        <v>0.79700000000000004</v>
+        <v>0.71899999999999997</v>
       </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.25">
@@ -34488,7 +34737,7 @@
         <v>34</v>
       </c>
       <c r="H460">
-        <v>0.81299999999999994</v>
+        <v>0.92200000000000004</v>
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.25">
@@ -34514,7 +34763,7 @@
         <v>24</v>
       </c>
       <c r="H461">
-        <v>0.32800000000000001</v>
+        <v>0.29699999999999999</v>
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.25">
@@ -34566,7 +34815,7 @@
         <v>33</v>
       </c>
       <c r="H463">
-        <v>0.57799999999999996</v>
+        <v>0.67200000000000004</v>
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
@@ -34592,7 +34841,7 @@
         <v>51</v>
       </c>
       <c r="H464">
-        <v>8.5939999999999994</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.25">
@@ -34618,7 +34867,7 @@
         <v>46</v>
       </c>
       <c r="H465">
-        <v>1.391</v>
+        <v>1.4850000000000001</v>
       </c>
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.25">
@@ -34670,7 +34919,7 @@
         <v>14</v>
       </c>
       <c r="H467">
-        <v>0.188</v>
+        <v>0.187</v>
       </c>
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.25">
@@ -34696,7 +34945,7 @@
         <v>14</v>
       </c>
       <c r="H468">
-        <v>0.17199999999999999</v>
+        <v>0.157</v>
       </c>
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.25">
@@ -34722,7 +34971,7 @@
         <v>20</v>
       </c>
       <c r="H469">
-        <v>0.60899999999999999</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.25">
@@ -34748,7 +34997,7 @@
         <v>18</v>
       </c>
       <c r="H470">
-        <v>0.313</v>
+        <v>0.34399999999999997</v>
       </c>
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.25">
@@ -34774,7 +35023,7 @@
         <v>13</v>
       </c>
       <c r="H471">
-        <v>0.156</v>
+        <v>0.17100000000000001</v>
       </c>
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.25">
@@ -34800,7 +35049,7 @@
         <v>27</v>
       </c>
       <c r="H472">
-        <v>0.5</v>
+        <v>0.53100000000000003</v>
       </c>
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.25">
@@ -34826,7 +35075,7 @@
         <v>23</v>
       </c>
       <c r="H473">
-        <v>0.35899999999999999</v>
+        <v>0.40600000000000003</v>
       </c>
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.25">
@@ -34852,7 +35101,7 @@
         <v>37</v>
       </c>
       <c r="H474">
-        <v>1.2969999999999999</v>
+        <v>1.359</v>
       </c>
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.25">
@@ -34878,7 +35127,7 @@
         <v>34</v>
       </c>
       <c r="H475">
-        <v>0.86</v>
+        <v>0.93799999999999994</v>
       </c>
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.25">
@@ -34904,7 +35153,7 @@
         <v>24</v>
       </c>
       <c r="H476">
-        <v>0.34399999999999997</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.25">
@@ -34930,7 +35179,7 @@
         <v>34</v>
       </c>
       <c r="H477">
-        <v>1.25</v>
+        <v>1.3120000000000001</v>
       </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.25">
@@ -34956,7 +35205,7 @@
         <v>33</v>
       </c>
       <c r="H478">
-        <v>0.68700000000000006</v>
+        <v>0.70299999999999996</v>
       </c>
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.25">
@@ -34982,7 +35231,7 @@
         <v>51</v>
       </c>
       <c r="H479">
-        <v>12.141</v>
+        <v>13.266</v>
       </c>
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.25">
@@ -35008,7 +35257,7 @@
         <v>46</v>
       </c>
       <c r="H480">
-        <v>1.359</v>
+        <v>1.4850000000000001</v>
       </c>
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.25">
@@ -35034,7 +35283,7 @@
         <v>36</v>
       </c>
       <c r="H481">
-        <v>0.89</v>
+        <v>0.81200000000000006</v>
       </c>
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.25">
@@ -35060,7 +35309,7 @@
         <v>15</v>
       </c>
       <c r="H482">
-        <v>0.25</v>
+        <v>0.23400000000000001</v>
       </c>
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.25">
@@ -35086,7 +35335,7 @@
         <v>14</v>
       </c>
       <c r="H483">
-        <v>0.25</v>
+        <v>0.20300000000000001</v>
       </c>
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.25">
@@ -35112,7 +35361,7 @@
         <v>20</v>
       </c>
       <c r="H484">
-        <v>0.75</v>
+        <v>0.78100000000000003</v>
       </c>
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.25">
@@ -35138,7 +35387,7 @@
         <v>18</v>
       </c>
       <c r="H485">
-        <v>0.36</v>
+        <v>0.40600000000000003</v>
       </c>
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.25">
@@ -35164,7 +35413,7 @@
         <v>13</v>
       </c>
       <c r="H486">
-        <v>0.187</v>
+        <v>0.17100000000000001</v>
       </c>
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.25">
@@ -35190,7 +35439,7 @@
         <v>28</v>
       </c>
       <c r="H487">
-        <v>1.266</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.25">
@@ -35216,7 +35465,7 @@
         <v>23</v>
       </c>
       <c r="H488">
-        <v>0.46899999999999997</v>
+        <v>0.45300000000000001</v>
       </c>
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.25">
@@ -35242,7 +35491,7 @@
         <v>37</v>
       </c>
       <c r="H489">
-        <v>1.4530000000000001</v>
+        <v>1.5780000000000001</v>
       </c>
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.25">
@@ -35268,7 +35517,7 @@
         <v>34</v>
       </c>
       <c r="H490">
-        <v>1.36</v>
+        <v>1.5940000000000001</v>
       </c>
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.25">
@@ -35294,7 +35543,7 @@
         <v>24</v>
       </c>
       <c r="H491">
-        <v>0.437</v>
+        <v>0.53100000000000003</v>
       </c>
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.25">
@@ -35320,7 +35569,7 @@
         <v>35</v>
       </c>
       <c r="H492">
-        <v>2.3130000000000002</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.25">
@@ -35346,7 +35595,7 @@
         <v>33</v>
       </c>
       <c r="H493">
-        <v>0.81299999999999994</v>
+        <v>0.93700000000000006</v>
       </c>
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.25">
@@ -35372,7 +35621,7 @@
         <v>51</v>
       </c>
       <c r="H494">
-        <v>9.1709999999999994</v>
+        <v>9.7189999999999994</v>
       </c>
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.25">
@@ -35398,7 +35647,7 @@
         <v>46</v>
       </c>
       <c r="H495">
-        <v>1.9379999999999999</v>
+        <v>1.9690000000000001</v>
       </c>
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.25">
@@ -35450,7 +35699,7 @@
         <v>15</v>
       </c>
       <c r="H497">
-        <v>0.25</v>
+        <v>0.28199999999999997</v>
       </c>
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.25">
@@ -35476,7 +35725,7 @@
         <v>17</v>
       </c>
       <c r="H498">
-        <v>0.375</v>
+        <v>0.45300000000000001</v>
       </c>
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.25">
@@ -35502,7 +35751,7 @@
         <v>20</v>
       </c>
       <c r="H499">
-        <v>0.82799999999999996</v>
+        <v>0.90600000000000003</v>
       </c>
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.25">
@@ -35528,7 +35777,7 @@
         <v>18</v>
       </c>
       <c r="H500">
-        <v>0.42199999999999999</v>
+        <v>0.45300000000000001</v>
       </c>
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.25">
@@ -35554,7 +35803,7 @@
         <v>16</v>
       </c>
       <c r="H501">
-        <v>0.61</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.25">
@@ -35580,7 +35829,7 @@
         <v>28</v>
       </c>
       <c r="H502">
-        <v>1.5309999999999999</v>
+        <v>1.5629999999999999</v>
       </c>
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.25">
@@ -35606,7 +35855,7 @@
         <v>23</v>
       </c>
       <c r="H503">
-        <v>0.48499999999999999</v>
+        <v>0.53100000000000003</v>
       </c>
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.25">
@@ -35632,7 +35881,7 @@
         <v>37</v>
       </c>
       <c r="H504">
-        <v>1.875</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.25">
@@ -35658,7 +35907,7 @@
         <v>34</v>
       </c>
       <c r="H505">
-        <v>1.641</v>
+        <v>1.6719999999999999</v>
       </c>
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.25">
@@ -35684,7 +35933,7 @@
         <v>30</v>
       </c>
       <c r="H506">
-        <v>2.5619999999999998</v>
+        <v>2.7970000000000002</v>
       </c>
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.25">
@@ -35710,7 +35959,7 @@
         <v>36</v>
       </c>
       <c r="H507">
-        <v>3.8290000000000002</v>
+        <v>4.109</v>
       </c>
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.25">
@@ -35736,7 +35985,7 @@
         <v>39</v>
       </c>
       <c r="H508">
-        <v>1.843</v>
+        <v>1.9219999999999999</v>
       </c>
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.25">
@@ -35762,7 +36011,7 @@
         <v>51</v>
       </c>
       <c r="H509">
-        <v>11.422000000000001</v>
+        <v>12.218999999999999</v>
       </c>
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.25">
@@ -35788,7 +36037,7 @@
         <v>46</v>
       </c>
       <c r="H510">
-        <v>3.5459999999999998</v>
+        <v>3.7810000000000001</v>
       </c>
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.25">
@@ -35814,7 +36063,7 @@
         <v>46</v>
       </c>
       <c r="H511">
-        <v>12.093999999999999</v>
+        <v>12.561999999999999</v>
       </c>
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.25">
@@ -35840,7 +36089,7 @@
         <v>17</v>
       </c>
       <c r="H512">
-        <v>0.42199999999999999</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.25">
@@ -35866,7 +36115,7 @@
         <v>17</v>
       </c>
       <c r="H513">
-        <v>0.438</v>
+        <v>0.48399999999999999</v>
       </c>
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.25">
@@ -35892,7 +36141,7 @@
         <v>20</v>
       </c>
       <c r="H514">
-        <v>1.016</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.25">
@@ -35918,7 +36167,7 @@
         <v>18</v>
       </c>
       <c r="H515">
-        <v>0.51600000000000001</v>
+        <v>0.56200000000000006</v>
       </c>
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.25">
@@ -35944,7 +36193,7 @@
         <v>16</v>
       </c>
       <c r="H516">
-        <v>0.375</v>
+        <v>0.42199999999999999</v>
       </c>
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.25">
@@ -35970,7 +36219,7 @@
         <v>30</v>
       </c>
       <c r="H517">
-        <v>3.3119999999999998</v>
+        <v>3.5619999999999998</v>
       </c>
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.25">
@@ -35996,7 +36245,7 @@
         <v>24</v>
       </c>
       <c r="H518">
-        <v>1.1559999999999999</v>
+        <v>1.2969999999999999</v>
       </c>
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.25">
@@ -36022,7 +36271,7 @@
         <v>37</v>
       </c>
       <c r="H519">
-        <v>1.875</v>
+        <v>2.0779999999999998</v>
       </c>
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.25">
@@ -36048,7 +36297,7 @@
         <v>34</v>
       </c>
       <c r="H520">
-        <v>2.0470000000000002</v>
+        <v>2.2040000000000002</v>
       </c>
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.25">
@@ -36074,7 +36323,7 @@
         <v>30</v>
       </c>
       <c r="H521">
-        <v>3.0779999999999998</v>
+        <v>3.4060000000000001</v>
       </c>
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.25">
@@ -36100,7 +36349,7 @@
         <v>41</v>
       </c>
       <c r="H522">
-        <v>7.8120000000000003</v>
+        <v>8.5150000000000006</v>
       </c>
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.25">
@@ -36126,7 +36375,7 @@
         <v>39</v>
       </c>
       <c r="H523">
-        <v>2.8439999999999999</v>
+        <v>3.0470000000000002</v>
       </c>
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.25">
@@ -36152,7 +36401,7 @@
         <v>51</v>
       </c>
       <c r="H524">
-        <v>12.031000000000001</v>
+        <v>12.952999999999999</v>
       </c>
     </row>
     <row r="525" spans="1:8" x14ac:dyDescent="0.25">
@@ -36178,7 +36427,7 @@
         <v>46</v>
       </c>
       <c r="H525">
-        <v>4.1559999999999997</v>
+        <v>4.4379999999999997</v>
       </c>
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.25">
@@ -36204,7 +36453,7 @@
         <v>46</v>
       </c>
       <c r="H526">
-        <v>10.656000000000001</v>
+        <v>11.406000000000001</v>
       </c>
     </row>
     <row r="527" spans="1:8" x14ac:dyDescent="0.25">
@@ -36230,7 +36479,7 @@
         <v>17</v>
       </c>
       <c r="H527">
-        <v>0.5</v>
+        <v>0.46899999999999997</v>
       </c>
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.25">
@@ -36256,7 +36505,7 @@
         <v>17</v>
       </c>
       <c r="H528">
-        <v>0.53100000000000003</v>
+        <v>0.54700000000000004</v>
       </c>
     </row>
     <row r="529" spans="1:8" x14ac:dyDescent="0.25">
@@ -36282,7 +36531,7 @@
         <v>20</v>
       </c>
       <c r="H529">
-        <v>1.359</v>
+        <v>1.4219999999999999</v>
       </c>
     </row>
     <row r="530" spans="1:8" x14ac:dyDescent="0.25">
@@ -36308,7 +36557,7 @@
         <v>18</v>
       </c>
       <c r="H530">
-        <v>0.56299999999999994</v>
+        <v>0.64100000000000001</v>
       </c>
     </row>
     <row r="531" spans="1:8" x14ac:dyDescent="0.25">
@@ -36334,7 +36583,7 @@
         <v>16</v>
       </c>
       <c r="H531">
-        <v>0.42199999999999999</v>
+        <v>0.48399999999999999</v>
       </c>
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.25">
@@ -36360,7 +36609,7 @@
         <v>30</v>
       </c>
       <c r="H532">
-        <v>3.7959999999999998</v>
+        <v>4.125</v>
       </c>
     </row>
     <row r="533" spans="1:8" x14ac:dyDescent="0.25">
@@ -36386,7 +36635,7 @@
         <v>24</v>
       </c>
       <c r="H533">
-        <v>0.79600000000000004</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="534" spans="1:8" x14ac:dyDescent="0.25">
@@ -36412,7 +36661,7 @@
         <v>37</v>
       </c>
       <c r="H534">
-        <v>3.7810000000000001</v>
+        <v>4.1870000000000003</v>
       </c>
     </row>
     <row r="535" spans="1:8" x14ac:dyDescent="0.25">
@@ -36438,7 +36687,7 @@
         <v>34</v>
       </c>
       <c r="H535">
-        <v>3.0150000000000001</v>
+        <v>3.266</v>
       </c>
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.25">
@@ -36464,7 +36713,7 @@
         <v>30</v>
       </c>
       <c r="H536">
-        <v>3.0779999999999998</v>
+        <v>3.2970000000000002</v>
       </c>
     </row>
     <row r="537" spans="1:8" x14ac:dyDescent="0.25">
@@ -36490,7 +36739,7 @@
         <v>41</v>
       </c>
       <c r="H537">
-        <v>6.7030000000000003</v>
+        <v>7.234</v>
       </c>
     </row>
     <row r="538" spans="1:8" x14ac:dyDescent="0.25">
@@ -36516,7 +36765,7 @@
         <v>39</v>
       </c>
       <c r="H538">
-        <v>3.1869999999999998</v>
+        <v>3.5459999999999998</v>
       </c>
     </row>
     <row r="539" spans="1:8" x14ac:dyDescent="0.25">
@@ -36542,7 +36791,7 @@
         <v>51</v>
       </c>
       <c r="H539">
-        <v>21.155999999999999</v>
+        <v>22.702999999999999</v>
       </c>
     </row>
     <row r="540" spans="1:8" x14ac:dyDescent="0.25">
@@ -36568,7 +36817,7 @@
         <v>46</v>
       </c>
       <c r="H540">
-        <v>5.859</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="541" spans="1:8" x14ac:dyDescent="0.25">
@@ -36594,7 +36843,7 @@
         <v>46</v>
       </c>
       <c r="H541">
-        <v>13.11</v>
+        <v>15.25</v>
       </c>
     </row>
     <row r="542" spans="1:8" x14ac:dyDescent="0.25">
@@ -36620,7 +36869,7 @@
         <v>14</v>
       </c>
       <c r="H542">
-        <v>3.1E-2</v>
+        <v>4.7E-2</v>
       </c>
     </row>
     <row r="543" spans="1:8" x14ac:dyDescent="0.25">
@@ -36646,7 +36895,7 @@
         <v>12</v>
       </c>
       <c r="H543">
-        <v>3.1E-2</v>
+        <v>4.7E-2</v>
       </c>
     </row>
     <row r="544" spans="1:8" x14ac:dyDescent="0.25">
@@ -36698,7 +36947,7 @@
         <v>7</v>
       </c>
       <c r="H545">
-        <v>4.7E-2</v>
+        <v>3.1E-2</v>
       </c>
     </row>
     <row r="546" spans="1:8" x14ac:dyDescent="0.25">
@@ -36750,7 +36999,7 @@
         <v>27</v>
       </c>
       <c r="H547">
-        <v>6.3E-2</v>
+        <v>7.8E-2</v>
       </c>
     </row>
     <row r="548" spans="1:8" x14ac:dyDescent="0.25">
@@ -36776,7 +37025,7 @@
         <v>18</v>
       </c>
       <c r="H548">
-        <v>6.3E-2</v>
+        <v>4.7E-2</v>
       </c>
     </row>
     <row r="549" spans="1:8" x14ac:dyDescent="0.25">
@@ -36802,7 +37051,7 @@
         <v>12</v>
       </c>
       <c r="H549">
-        <v>3.1E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="550" spans="1:8" x14ac:dyDescent="0.25">
@@ -36828,7 +37077,7 @@
         <v>11</v>
       </c>
       <c r="H550">
-        <v>4.7E-2</v>
+        <v>6.3E-2</v>
       </c>
     </row>
     <row r="551" spans="1:8" x14ac:dyDescent="0.25">
@@ -36854,7 +37103,7 @@
         <v>18</v>
       </c>
       <c r="H551">
-        <v>3.1E-2</v>
+        <v>6.2E-2</v>
       </c>
     </row>
     <row r="552" spans="1:8" x14ac:dyDescent="0.25">
@@ -36880,7 +37129,7 @@
         <v>33</v>
       </c>
       <c r="H552">
-        <v>9.4E-2</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="553" spans="1:8" x14ac:dyDescent="0.25">
@@ -36984,7 +37233,7 @@
         <v>20</v>
       </c>
       <c r="H556">
-        <v>6.3E-2</v>
+        <v>6.2E-2</v>
       </c>
     </row>
     <row r="557" spans="1:8" x14ac:dyDescent="0.25">
@@ -37036,7 +37285,7 @@
         <v>12</v>
       </c>
       <c r="H558">
-        <v>4.7E-2</v>
+        <v>6.3E-2</v>
       </c>
     </row>
     <row r="559" spans="1:8" x14ac:dyDescent="0.25">
@@ -37062,7 +37311,7 @@
         <v>11</v>
       </c>
       <c r="H559">
-        <v>6.3E-2</v>
+        <v>6.2E-2</v>
       </c>
     </row>
     <row r="560" spans="1:8" x14ac:dyDescent="0.25">
@@ -37088,7 +37337,7 @@
         <v>18</v>
       </c>
       <c r="H560">
-        <v>7.8E-2</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="561" spans="1:8" x14ac:dyDescent="0.25">
@@ -37114,7 +37363,7 @@
         <v>11</v>
       </c>
       <c r="H561">
-        <v>6.2E-2</v>
+        <v>3.1E-2</v>
       </c>
     </row>
     <row r="562" spans="1:8" x14ac:dyDescent="0.25">
@@ -37140,7 +37389,7 @@
         <v>27</v>
       </c>
       <c r="H562">
-        <v>0.17199999999999999</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="563" spans="1:8" x14ac:dyDescent="0.25">
@@ -37192,7 +37441,7 @@
         <v>13</v>
       </c>
       <c r="H564">
-        <v>6.2E-2</v>
+        <v>4.7E-2</v>
       </c>
     </row>
     <row r="565" spans="1:8" x14ac:dyDescent="0.25">
@@ -37218,7 +37467,7 @@
         <v>34</v>
       </c>
       <c r="H565">
-        <v>0.26500000000000001</v>
+        <v>0.219</v>
       </c>
     </row>
     <row r="566" spans="1:8" x14ac:dyDescent="0.25">
@@ -37244,7 +37493,7 @@
         <v>18</v>
       </c>
       <c r="H566">
-        <v>7.8E-2</v>
+        <v>9.4E-2</v>
       </c>
     </row>
     <row r="567" spans="1:8" x14ac:dyDescent="0.25">
@@ -37270,7 +37519,7 @@
         <v>33</v>
       </c>
       <c r="H567">
-        <v>0.20300000000000001</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="568" spans="1:8" x14ac:dyDescent="0.25">
@@ -37296,7 +37545,7 @@
         <v>26</v>
       </c>
       <c r="H568">
-        <v>0.14000000000000001</v>
+        <v>9.4E-2</v>
       </c>
     </row>
     <row r="569" spans="1:8" x14ac:dyDescent="0.25">
@@ -37322,7 +37571,7 @@
         <v>20</v>
       </c>
       <c r="H569">
-        <v>7.8E-2</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="570" spans="1:8" x14ac:dyDescent="0.25">
@@ -37348,7 +37597,7 @@
         <v>46</v>
       </c>
       <c r="H570">
-        <v>0.34399999999999997</v>
+        <v>0.42099999999999999</v>
       </c>
     </row>
     <row r="571" spans="1:8" x14ac:dyDescent="0.25">
@@ -37374,7 +37623,7 @@
         <v>29</v>
       </c>
       <c r="H571">
-        <v>0.11</v>
+        <v>0.157</v>
       </c>
     </row>
     <row r="572" spans="1:8" x14ac:dyDescent="0.25">
@@ -37400,7 +37649,7 @@
         <v>14</v>
       </c>
       <c r="H572">
-        <v>7.8E-2</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="573" spans="1:8" x14ac:dyDescent="0.25">
@@ -37426,7 +37675,7 @@
         <v>12</v>
       </c>
       <c r="H573">
-        <v>7.8E-2</v>
+        <v>9.4E-2</v>
       </c>
     </row>
     <row r="574" spans="1:8" x14ac:dyDescent="0.25">
@@ -37452,7 +37701,7 @@
         <v>13</v>
       </c>
       <c r="H574">
-        <v>9.4E-2</v>
+        <v>7.8E-2</v>
       </c>
     </row>
     <row r="575" spans="1:8" x14ac:dyDescent="0.25">
@@ -37478,7 +37727,7 @@
         <v>18</v>
       </c>
       <c r="H575">
-        <v>9.4E-2</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="576" spans="1:8" x14ac:dyDescent="0.25">
@@ -37504,7 +37753,7 @@
         <v>12</v>
       </c>
       <c r="H576">
-        <v>7.8E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
     </row>
     <row r="577" spans="1:8" x14ac:dyDescent="0.25">
@@ -37530,7 +37779,7 @@
         <v>27</v>
       </c>
       <c r="H577">
-        <v>0.23499999999999999</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="578" spans="1:8" x14ac:dyDescent="0.25">
@@ -37556,7 +37805,7 @@
         <v>18</v>
       </c>
       <c r="H578">
-        <v>9.4E-2</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="579" spans="1:8" x14ac:dyDescent="0.25">
@@ -37582,7 +37831,7 @@
         <v>27</v>
       </c>
       <c r="H579">
-        <v>0.218</v>
+        <v>0.29699999999999999</v>
       </c>
     </row>
     <row r="580" spans="1:8" x14ac:dyDescent="0.25">
@@ -37608,7 +37857,7 @@
         <v>34</v>
       </c>
       <c r="H580">
-        <v>0.36</v>
+        <v>0.40600000000000003</v>
       </c>
     </row>
     <row r="581" spans="1:8" x14ac:dyDescent="0.25">
@@ -37634,7 +37883,7 @@
         <v>19</v>
       </c>
       <c r="H581">
-        <v>0.11</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="582" spans="1:8" x14ac:dyDescent="0.25">
@@ -37660,7 +37909,7 @@
         <v>34</v>
       </c>
       <c r="H582">
-        <v>0.57799999999999996</v>
+        <v>0.70299999999999996</v>
       </c>
     </row>
     <row r="583" spans="1:8" x14ac:dyDescent="0.25">
@@ -37686,7 +37935,7 @@
         <v>26</v>
       </c>
       <c r="H583">
-        <v>0.125</v>
+        <v>0.17199999999999999</v>
       </c>
     </row>
     <row r="584" spans="1:8" x14ac:dyDescent="0.25">
@@ -37712,7 +37961,7 @@
         <v>34</v>
       </c>
       <c r="H584">
-        <v>0.53100000000000003</v>
+        <v>0.54700000000000004</v>
       </c>
     </row>
     <row r="585" spans="1:8" x14ac:dyDescent="0.25">
@@ -37764,7 +38013,7 @@
         <v>29</v>
       </c>
       <c r="H586">
-        <v>0.17100000000000001</v>
+        <v>0.23499999999999999</v>
       </c>
     </row>
     <row r="587" spans="1:8" x14ac:dyDescent="0.25">
@@ -37790,7 +38039,7 @@
         <v>14</v>
       </c>
       <c r="H587">
-        <v>0.109</v>
+        <v>0.14099999999999999</v>
       </c>
     </row>
     <row r="588" spans="1:8" x14ac:dyDescent="0.25">
@@ -37816,7 +38065,7 @@
         <v>14</v>
       </c>
       <c r="H588">
-        <v>0.109</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="589" spans="1:8" x14ac:dyDescent="0.25">
@@ -37842,7 +38091,7 @@
         <v>13</v>
       </c>
       <c r="H589">
-        <v>7.8E-2</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="590" spans="1:8" x14ac:dyDescent="0.25">
@@ -37868,7 +38117,7 @@
         <v>18</v>
       </c>
       <c r="H590">
-        <v>0.219</v>
+        <v>0.17199999999999999</v>
       </c>
     </row>
     <row r="591" spans="1:8" x14ac:dyDescent="0.25">
@@ -37894,7 +38143,7 @@
         <v>12</v>
       </c>
       <c r="H591">
-        <v>0.11</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="592" spans="1:8" x14ac:dyDescent="0.25">
@@ -37920,7 +38169,7 @@
         <v>27</v>
       </c>
       <c r="H592">
-        <v>0.32800000000000001</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="593" spans="1:8" x14ac:dyDescent="0.25">
@@ -37946,7 +38195,7 @@
         <v>23</v>
       </c>
       <c r="H593">
-        <v>0.219</v>
+        <v>0.20300000000000001</v>
       </c>
     </row>
     <row r="594" spans="1:8" x14ac:dyDescent="0.25">
@@ -37972,7 +38221,7 @@
         <v>27</v>
       </c>
       <c r="H594">
-        <v>0.32800000000000001</v>
+        <v>0.34399999999999997</v>
       </c>
     </row>
     <row r="595" spans="1:8" x14ac:dyDescent="0.25">
@@ -37998,7 +38247,7 @@
         <v>34</v>
       </c>
       <c r="H595">
-        <v>0.56299999999999994</v>
+        <v>0.53100000000000003</v>
       </c>
     </row>
     <row r="596" spans="1:8" x14ac:dyDescent="0.25">
@@ -38050,7 +38299,7 @@
         <v>34</v>
       </c>
       <c r="H597">
-        <v>0.82799999999999996</v>
+        <v>0.84399999999999997</v>
       </c>
     </row>
     <row r="598" spans="1:8" x14ac:dyDescent="0.25">
@@ -38076,7 +38325,7 @@
         <v>33</v>
       </c>
       <c r="H598">
-        <v>0.438</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="599" spans="1:8" x14ac:dyDescent="0.25">
@@ -38102,7 +38351,7 @@
         <v>34</v>
       </c>
       <c r="H599">
-        <v>0.75</v>
+        <v>0.81200000000000006</v>
       </c>
     </row>
     <row r="600" spans="1:8" x14ac:dyDescent="0.25">
@@ -38128,7 +38377,7 @@
         <v>46</v>
       </c>
       <c r="H600">
-        <v>1.0149999999999999</v>
+        <v>1.2190000000000001</v>
       </c>
     </row>
     <row r="601" spans="1:8" x14ac:dyDescent="0.25">
@@ -38154,7 +38403,7 @@
         <v>29</v>
       </c>
       <c r="H601">
-        <v>0.28100000000000003</v>
+        <v>0.32800000000000001</v>
       </c>
     </row>
     <row r="602" spans="1:8" x14ac:dyDescent="0.25">
@@ -38180,7 +38429,7 @@
         <v>24</v>
       </c>
       <c r="H602">
-        <v>1.4370000000000001</v>
+        <v>1.4219999999999999</v>
       </c>
     </row>
     <row r="603" spans="1:8" x14ac:dyDescent="0.25">
@@ -38206,7 +38455,7 @@
         <v>25</v>
       </c>
       <c r="H603">
-        <v>1.609</v>
+        <v>1.734</v>
       </c>
     </row>
     <row r="604" spans="1:8" x14ac:dyDescent="0.25">
@@ -38232,7 +38481,7 @@
         <v>26</v>
       </c>
       <c r="H604">
-        <v>2.766</v>
+        <v>3.0310000000000001</v>
       </c>
     </row>
     <row r="605" spans="1:8" x14ac:dyDescent="0.25">
@@ -38258,7 +38507,7 @@
         <v>24</v>
       </c>
       <c r="H605">
-        <v>1.625</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="606" spans="1:8" x14ac:dyDescent="0.25">
@@ -38284,7 +38533,7 @@
         <v>21</v>
       </c>
       <c r="H606">
-        <v>1.3120000000000001</v>
+        <v>1.3129999999999999</v>
       </c>
     </row>
     <row r="607" spans="1:8" x14ac:dyDescent="0.25">
@@ -38310,7 +38559,7 @@
         <v>44</v>
       </c>
       <c r="H607">
-        <v>6.734</v>
+        <v>7.141</v>
       </c>
     </row>
     <row r="608" spans="1:8" x14ac:dyDescent="0.25">
@@ -38336,7 +38585,7 @@
         <v>41</v>
       </c>
       <c r="H608">
-        <v>5.4379999999999997</v>
+        <v>6.0620000000000003</v>
       </c>
     </row>
     <row r="609" spans="1:8" x14ac:dyDescent="0.25">
@@ -38362,7 +38611,7 @@
         <v>43</v>
       </c>
       <c r="H609">
-        <v>3.375</v>
+        <v>3.532</v>
       </c>
     </row>
     <row r="610" spans="1:8" x14ac:dyDescent="0.25">
@@ -38388,7 +38637,7 @@
         <v>47</v>
       </c>
       <c r="H610">
-        <v>7.875</v>
+        <v>8.4689999999999994</v>
       </c>
     </row>
     <row r="611" spans="1:8" x14ac:dyDescent="0.25">
@@ -38414,7 +38663,7 @@
         <v>34</v>
       </c>
       <c r="H611">
-        <v>2.875</v>
+        <v>2.907</v>
       </c>
     </row>
     <row r="612" spans="1:8" x14ac:dyDescent="0.25">
@@ -38440,7 +38689,7 @@
         <v>64</v>
       </c>
       <c r="H612">
-        <v>18.170999999999999</v>
+        <v>20.047000000000001</v>
       </c>
     </row>
     <row r="613" spans="1:8" x14ac:dyDescent="0.25">
@@ -38466,7 +38715,7 @@
         <v>66</v>
       </c>
       <c r="H613">
-        <v>15.375</v>
+        <v>16.640999999999998</v>
       </c>
     </row>
     <row r="614" spans="1:8" x14ac:dyDescent="0.25">
@@ -38492,7 +38741,7 @@
         <v>62</v>
       </c>
       <c r="H614">
-        <v>9.3439999999999994</v>
+        <v>9.9689999999999994</v>
       </c>
     </row>
     <row r="615" spans="1:8" x14ac:dyDescent="0.25">
@@ -38518,7 +38767,7 @@
         <v>73</v>
       </c>
       <c r="H615">
-        <v>42.875</v>
+        <v>46.313000000000002</v>
       </c>
     </row>
     <row r="616" spans="1:8" x14ac:dyDescent="0.25">
@@ -38544,7 +38793,7 @@
         <v>52</v>
       </c>
       <c r="H616">
-        <v>5.8129999999999997</v>
+        <v>6.2030000000000003</v>
       </c>
     </row>
     <row r="617" spans="1:8" x14ac:dyDescent="0.25">
@@ -38570,7 +38819,7 @@
         <v>24</v>
       </c>
       <c r="H617">
-        <v>1.7809999999999999</v>
+        <v>1.9530000000000001</v>
       </c>
     </row>
     <row r="618" spans="1:8" x14ac:dyDescent="0.25">
@@ -38596,7 +38845,7 @@
         <v>26</v>
       </c>
       <c r="H618">
-        <v>3.14</v>
+        <v>3.516</v>
       </c>
     </row>
     <row r="619" spans="1:8" x14ac:dyDescent="0.25">
@@ -38622,7 +38871,7 @@
         <v>32</v>
       </c>
       <c r="H619">
-        <v>5.6719999999999997</v>
+        <v>6.0620000000000003</v>
       </c>
     </row>
     <row r="620" spans="1:8" x14ac:dyDescent="0.25">
@@ -38648,7 +38897,7 @@
         <v>24</v>
       </c>
       <c r="H620">
-        <v>1.9059999999999999</v>
+        <v>2.016</v>
       </c>
     </row>
     <row r="621" spans="1:8" x14ac:dyDescent="0.25">
@@ -38700,7 +38949,7 @@
         <v>44</v>
       </c>
       <c r="H622">
-        <v>5.9530000000000003</v>
+        <v>6.4219999999999997</v>
       </c>
     </row>
     <row r="623" spans="1:8" x14ac:dyDescent="0.25">
@@ -38726,7 +38975,7 @@
         <v>51</v>
       </c>
       <c r="H623">
-        <v>8.7650000000000006</v>
+        <v>9.5310000000000006</v>
       </c>
     </row>
     <row r="624" spans="1:8" x14ac:dyDescent="0.25">
@@ -38752,7 +39001,7 @@
         <v>49</v>
       </c>
       <c r="H624">
-        <v>17.125</v>
+        <v>18.437999999999999</v>
       </c>
     </row>
     <row r="625" spans="1:8" x14ac:dyDescent="0.25">
@@ -38778,7 +39027,7 @@
         <v>47</v>
       </c>
       <c r="H625">
-        <v>10.765000000000001</v>
+        <v>11.686999999999999</v>
       </c>
     </row>
     <row r="626" spans="1:8" x14ac:dyDescent="0.25">
@@ -38804,7 +39053,7 @@
         <v>34</v>
       </c>
       <c r="H626">
-        <v>3.5619999999999998</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="627" spans="1:8" x14ac:dyDescent="0.25">
@@ -38830,7 +39079,7 @@
         <v>64</v>
       </c>
       <c r="H627">
-        <v>21.515000000000001</v>
+        <v>23.062999999999999</v>
       </c>
     </row>
     <row r="628" spans="1:8" x14ac:dyDescent="0.25">
@@ -38856,7 +39105,7 @@
         <v>67</v>
       </c>
       <c r="H628">
-        <v>20.827999999999999</v>
+        <v>22.469000000000001</v>
       </c>
     </row>
     <row r="629" spans="1:8" x14ac:dyDescent="0.25">
@@ -38882,7 +39131,7 @@
         <v>84</v>
       </c>
       <c r="H629">
-        <v>22.280999999999999</v>
+        <v>24.187000000000001</v>
       </c>
     </row>
     <row r="630" spans="1:8" x14ac:dyDescent="0.25">
@@ -38908,7 +39157,7 @@
         <v>73</v>
       </c>
       <c r="H630">
-        <v>24.640999999999998</v>
+        <v>26.702999999999999</v>
       </c>
     </row>
     <row r="631" spans="1:8" x14ac:dyDescent="0.25">
@@ -38934,7 +39183,7 @@
         <v>52</v>
       </c>
       <c r="H631">
-        <v>7.7190000000000003</v>
+        <v>8.36</v>
       </c>
     </row>
     <row r="632" spans="1:8" x14ac:dyDescent="0.25">
@@ -38960,7 +39209,7 @@
         <v>24</v>
       </c>
       <c r="H632">
-        <v>1.9530000000000001</v>
+        <v>2.109</v>
       </c>
     </row>
     <row r="633" spans="1:8" x14ac:dyDescent="0.25">
@@ -38986,7 +39235,7 @@
         <v>26</v>
       </c>
       <c r="H633">
-        <v>4.25</v>
+        <v>4.6719999999999997</v>
       </c>
     </row>
     <row r="634" spans="1:8" x14ac:dyDescent="0.25">
@@ -39012,7 +39261,7 @@
         <v>32</v>
       </c>
       <c r="H634">
-        <v>8</v>
+        <v>8.625</v>
       </c>
     </row>
     <row r="635" spans="1:8" x14ac:dyDescent="0.25">
@@ -39038,7 +39287,7 @@
         <v>24</v>
       </c>
       <c r="H635">
-        <v>2.36</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="636" spans="1:8" x14ac:dyDescent="0.25">
@@ -39064,7 +39313,7 @@
         <v>21</v>
       </c>
       <c r="H636">
-        <v>1.8129999999999999</v>
+        <v>1.9219999999999999</v>
       </c>
     </row>
     <row r="637" spans="1:8" x14ac:dyDescent="0.25">
@@ -39090,7 +39339,7 @@
         <v>44</v>
       </c>
       <c r="H637">
-        <v>17.827999999999999</v>
+        <v>19.577999999999999</v>
       </c>
     </row>
     <row r="638" spans="1:8" x14ac:dyDescent="0.25">
@@ -39116,7 +39365,7 @@
         <v>51</v>
       </c>
       <c r="H638">
-        <v>18.937000000000001</v>
+        <v>20.297000000000001</v>
       </c>
     </row>
     <row r="639" spans="1:8" x14ac:dyDescent="0.25">
@@ -39142,7 +39391,7 @@
         <v>49</v>
       </c>
       <c r="H639">
-        <v>13</v>
+        <v>14.202999999999999</v>
       </c>
     </row>
     <row r="640" spans="1:8" x14ac:dyDescent="0.25">
@@ -39168,7 +39417,7 @@
         <v>47</v>
       </c>
       <c r="H640">
-        <v>7.843</v>
+        <v>8.5939999999999994</v>
       </c>
     </row>
     <row r="641" spans="1:8" x14ac:dyDescent="0.25">
@@ -39194,7 +39443,7 @@
         <v>34</v>
       </c>
       <c r="H641">
-        <v>3.4529999999999998</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="642" spans="1:8" x14ac:dyDescent="0.25">
@@ -39220,7 +39469,7 @@
         <v>64</v>
       </c>
       <c r="H642">
-        <v>13.468999999999999</v>
+        <v>14.922000000000001</v>
       </c>
     </row>
     <row r="643" spans="1:8" x14ac:dyDescent="0.25">
@@ -39246,7 +39495,7 @@
         <v>67</v>
       </c>
       <c r="H643">
-        <v>50.25</v>
+        <v>54.484999999999999</v>
       </c>
     </row>
     <row r="644" spans="1:8" x14ac:dyDescent="0.25">
@@ -39272,7 +39521,7 @@
         <v>84</v>
       </c>
       <c r="H644">
-        <v>69</v>
+        <v>74.891000000000005</v>
       </c>
     </row>
     <row r="645" spans="1:8" x14ac:dyDescent="0.25">
@@ -39298,7 +39547,7 @@
         <v>73</v>
       </c>
       <c r="H645">
-        <v>26.437999999999999</v>
+        <v>28.734000000000002</v>
       </c>
     </row>
     <row r="646" spans="1:8" x14ac:dyDescent="0.25">
@@ -39324,7 +39573,7 @@
         <v>52</v>
       </c>
       <c r="H646">
-        <v>10.766</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="647" spans="1:8" x14ac:dyDescent="0.25">
@@ -39350,7 +39599,7 @@
         <v>24</v>
       </c>
       <c r="H647">
-        <v>2.5630000000000002</v>
+        <v>2.6880000000000002</v>
       </c>
     </row>
     <row r="648" spans="1:8" x14ac:dyDescent="0.25">
@@ -39376,7 +39625,7 @@
         <v>26</v>
       </c>
       <c r="H648">
-        <v>4.782</v>
+        <v>5.0940000000000003</v>
       </c>
     </row>
     <row r="649" spans="1:8" x14ac:dyDescent="0.25">
@@ -39402,7 +39651,7 @@
         <v>32</v>
       </c>
       <c r="H649">
-        <v>5.2030000000000003</v>
+        <v>5.3280000000000003</v>
       </c>
     </row>
     <row r="650" spans="1:8" x14ac:dyDescent="0.25">
@@ -39428,7 +39677,7 @@
         <v>25</v>
       </c>
       <c r="H650">
-        <v>3.141</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="651" spans="1:8" x14ac:dyDescent="0.25">
@@ -39454,7 +39703,7 @@
         <v>23</v>
       </c>
       <c r="H651">
-        <v>2.25</v>
+        <v>2.4369999999999998</v>
       </c>
     </row>
     <row r="652" spans="1:8" x14ac:dyDescent="0.25">
@@ -39480,7 +39729,7 @@
         <v>44</v>
       </c>
       <c r="H652">
-        <v>9.7349999999999994</v>
+        <v>10.516</v>
       </c>
     </row>
     <row r="653" spans="1:8" x14ac:dyDescent="0.25">
@@ -39506,7 +39755,7 @@
         <v>51</v>
       </c>
       <c r="H653">
-        <v>31.312999999999999</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="654" spans="1:8" x14ac:dyDescent="0.25">
@@ -39532,7 +39781,7 @@
         <v>49</v>
       </c>
       <c r="H654">
-        <v>17.719000000000001</v>
+        <v>19.125</v>
       </c>
     </row>
     <row r="655" spans="1:8" x14ac:dyDescent="0.25">
@@ -39558,7 +39807,7 @@
         <v>47</v>
       </c>
       <c r="H655">
-        <v>10.829000000000001</v>
+        <v>11.734999999999999</v>
       </c>
     </row>
     <row r="656" spans="1:8" x14ac:dyDescent="0.25">
@@ -39584,7 +39833,7 @@
         <v>42</v>
       </c>
       <c r="H656">
-        <v>11.202999999999999</v>
+        <v>11.984</v>
       </c>
     </row>
     <row r="657" spans="1:8" x14ac:dyDescent="0.25">
@@ -39610,7 +39859,7 @@
         <v>65</v>
       </c>
       <c r="H657">
-        <v>19.687999999999999</v>
+        <v>21.422000000000001</v>
       </c>
     </row>
     <row r="658" spans="1:8" x14ac:dyDescent="0.25">
@@ -39636,7 +39885,7 @@
         <v>67</v>
       </c>
       <c r="H658">
-        <v>58.640999999999998</v>
+        <v>63.030999999999999</v>
       </c>
     </row>
     <row r="659" spans="1:8" x14ac:dyDescent="0.25">
@@ -39662,7 +39911,7 @@
         <v>84</v>
       </c>
       <c r="H659">
-        <v>37.719000000000001</v>
+        <v>40.405999999999999</v>
       </c>
     </row>
     <row r="660" spans="1:8" x14ac:dyDescent="0.25">
@@ -39688,7 +39937,7 @@
         <v>73</v>
       </c>
       <c r="H660">
-        <v>27.234999999999999</v>
+        <v>29.687000000000001</v>
       </c>
     </row>
     <row r="661" spans="1:8" x14ac:dyDescent="0.25">
@@ -39714,7 +39963,7 @@
         <v>53</v>
       </c>
       <c r="H661">
-        <v>12.077999999999999</v>
+        <v>13.016</v>
       </c>
     </row>
     <row r="662" spans="1:8" x14ac:dyDescent="0.25">
@@ -39740,7 +39989,7 @@
         <v>24</v>
       </c>
       <c r="H662">
-        <v>2.9849999999999999</v>
+        <v>3.2970000000000002</v>
       </c>
     </row>
     <row r="663" spans="1:8" x14ac:dyDescent="0.25">
@@ -39766,7 +40015,7 @@
         <v>27</v>
       </c>
       <c r="H663">
-        <v>6.9690000000000003</v>
+        <v>7.375</v>
       </c>
     </row>
     <row r="664" spans="1:8" x14ac:dyDescent="0.25">
@@ -39792,7 +40041,7 @@
         <v>32</v>
       </c>
       <c r="H664">
-        <v>6.2809999999999997</v>
+        <v>6.7190000000000003</v>
       </c>
     </row>
     <row r="665" spans="1:8" x14ac:dyDescent="0.25">
@@ -39818,7 +40067,7 @@
         <v>25</v>
       </c>
       <c r="H665">
-        <v>4.0940000000000003</v>
+        <v>4.4059999999999997</v>
       </c>
     </row>
     <row r="666" spans="1:8" x14ac:dyDescent="0.25">
@@ -39844,7 +40093,7 @@
         <v>23</v>
       </c>
       <c r="H666">
-        <v>3.1560000000000001</v>
+        <v>3.3119999999999998</v>
       </c>
     </row>
     <row r="667" spans="1:8" x14ac:dyDescent="0.25">
@@ -39870,7 +40119,7 @@
         <v>44</v>
       </c>
       <c r="H667">
-        <v>13.25</v>
+        <v>14.391</v>
       </c>
     </row>
     <row r="668" spans="1:8" x14ac:dyDescent="0.25">
@@ -39896,7 +40145,7 @@
         <v>51</v>
       </c>
       <c r="H668">
-        <v>17.780999999999999</v>
+        <v>19.187000000000001</v>
       </c>
     </row>
     <row r="669" spans="1:8" x14ac:dyDescent="0.25">
@@ -39922,7 +40171,7 @@
         <v>49</v>
       </c>
       <c r="H669">
-        <v>11.531000000000001</v>
+        <v>12.484999999999999</v>
       </c>
     </row>
     <row r="670" spans="1:8" x14ac:dyDescent="0.25">
@@ -39948,7 +40197,7 @@
         <v>47</v>
       </c>
       <c r="H670">
-        <v>25.172000000000001</v>
+        <v>27.062999999999999</v>
       </c>
     </row>
     <row r="671" spans="1:8" x14ac:dyDescent="0.25">
@@ -39974,7 +40223,7 @@
         <v>42</v>
       </c>
       <c r="H671">
-        <v>8.359</v>
+        <v>8.8290000000000006</v>
       </c>
     </row>
     <row r="672" spans="1:8" x14ac:dyDescent="0.25">
@@ -40000,7 +40249,7 @@
         <v>65</v>
       </c>
       <c r="H672">
-        <v>25.375</v>
+        <v>27.625</v>
       </c>
     </row>
     <row r="673" spans="1:8" x14ac:dyDescent="0.25">
@@ -40026,7 +40275,7 @@
         <v>67</v>
       </c>
       <c r="H673">
-        <v>29.61</v>
+        <v>32.094000000000001</v>
       </c>
     </row>
     <row r="674" spans="1:8" x14ac:dyDescent="0.25">
@@ -40048,6 +40297,12 @@
       <c r="F674" t="s">
         <v>1</v>
       </c>
+      <c r="G674">
+        <v>84</v>
+      </c>
+      <c r="H674">
+        <v>147.375</v>
+      </c>
     </row>
     <row r="675" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
@@ -40072,7 +40327,7 @@
         <v>73</v>
       </c>
       <c r="H675">
-        <v>72</v>
+        <v>78.421999999999997</v>
       </c>
     </row>
     <row r="676" spans="1:8" x14ac:dyDescent="0.25">
@@ -40098,7 +40353,7 @@
         <v>62</v>
       </c>
       <c r="H676">
-        <v>13.484999999999999</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="677" spans="1:8" x14ac:dyDescent="0.25">
@@ -40124,7 +40379,7 @@
         <v>24</v>
       </c>
       <c r="H677">
-        <v>3.375</v>
+        <v>3.7189999999999999</v>
       </c>
     </row>
     <row r="678" spans="1:8" x14ac:dyDescent="0.25">
@@ -40150,7 +40405,7 @@
         <v>27</v>
       </c>
       <c r="H678">
-        <v>6.9219999999999997</v>
+        <v>7.5940000000000003</v>
       </c>
     </row>
     <row r="679" spans="1:8" x14ac:dyDescent="0.25">
@@ -40176,7 +40431,7 @@
         <v>32</v>
       </c>
       <c r="H679">
-        <v>7.5</v>
+        <v>8.1720000000000006</v>
       </c>
     </row>
     <row r="680" spans="1:8" x14ac:dyDescent="0.25">
@@ -40202,7 +40457,7 @@
         <v>27</v>
       </c>
       <c r="H680">
-        <v>4.75</v>
+        <v>5.0469999999999997</v>
       </c>
     </row>
     <row r="681" spans="1:8" x14ac:dyDescent="0.25">
@@ -40228,7 +40483,7 @@
         <v>23</v>
       </c>
       <c r="H681">
-        <v>3.4689999999999999</v>
+        <v>3.7810000000000001</v>
       </c>
     </row>
     <row r="682" spans="1:8" x14ac:dyDescent="0.25">
@@ -40254,7 +40509,7 @@
         <v>44</v>
       </c>
       <c r="H682">
-        <v>22.422000000000001</v>
+        <v>24.062999999999999</v>
       </c>
     </row>
     <row r="683" spans="1:8" x14ac:dyDescent="0.25">
@@ -40280,7 +40535,7 @@
         <v>51</v>
       </c>
       <c r="H683">
-        <v>25.062000000000001</v>
+        <v>26.905999999999999</v>
       </c>
     </row>
     <row r="684" spans="1:8" x14ac:dyDescent="0.25">
@@ -40306,7 +40561,7 @@
         <v>49</v>
       </c>
       <c r="H684">
-        <v>15.531000000000001</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="685" spans="1:8" x14ac:dyDescent="0.25">
@@ -40332,7 +40587,7 @@
         <v>48</v>
       </c>
       <c r="H685">
-        <v>29.780999999999999</v>
+        <v>32.140999999999998</v>
       </c>
     </row>
     <row r="686" spans="1:8" x14ac:dyDescent="0.25">
@@ -40358,7 +40613,7 @@
         <v>42</v>
       </c>
       <c r="H686">
-        <v>8.968</v>
+        <v>9.5310000000000006</v>
       </c>
     </row>
     <row r="687" spans="1:8" x14ac:dyDescent="0.25">
@@ -40384,7 +40639,7 @@
         <v>65</v>
       </c>
       <c r="H687">
-        <v>27.312000000000001</v>
+        <v>29.952999999999999</v>
       </c>
     </row>
     <row r="688" spans="1:8" x14ac:dyDescent="0.25">
@@ -40410,7 +40665,7 @@
         <v>67</v>
       </c>
       <c r="H688">
-        <v>35.86</v>
+        <v>38.984999999999999</v>
       </c>
     </row>
     <row r="689" spans="1:8" x14ac:dyDescent="0.25">
@@ -40436,7 +40691,7 @@
         <v>84</v>
       </c>
       <c r="H689">
-        <v>53.546999999999997</v>
+        <v>58.328000000000003</v>
       </c>
     </row>
     <row r="690" spans="1:8" x14ac:dyDescent="0.25">
@@ -40458,6 +40713,12 @@
       <c r="F690" t="s">
         <v>1</v>
       </c>
+      <c r="G690">
+        <v>73</v>
+      </c>
+      <c r="H690">
+        <v>139.23400000000001</v>
+      </c>
     </row>
     <row r="691" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
@@ -40482,7 +40743,7 @@
         <v>62</v>
       </c>
       <c r="H691">
-        <v>27.375</v>
+        <v>29.577999999999999</v>
       </c>
     </row>
     <row r="692" spans="1:8" x14ac:dyDescent="0.25">
@@ -40508,7 +40769,7 @@
         <v>23</v>
       </c>
       <c r="H692">
-        <v>0.57799999999999996</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="693" spans="1:8" x14ac:dyDescent="0.25">
@@ -40534,7 +40795,7 @@
         <v>24</v>
       </c>
       <c r="H693">
-        <v>0.56299999999999994</v>
+        <v>0.56200000000000006</v>
       </c>
     </row>
     <row r="694" spans="1:8" x14ac:dyDescent="0.25">
@@ -40560,7 +40821,7 @@
         <v>25</v>
       </c>
       <c r="H694">
-        <v>0.625</v>
+        <v>0.68799999999999994</v>
       </c>
     </row>
     <row r="695" spans="1:8" x14ac:dyDescent="0.25">
@@ -40586,7 +40847,7 @@
         <v>13</v>
       </c>
       <c r="H695">
-        <v>0.56200000000000006</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="696" spans="1:8" x14ac:dyDescent="0.25">
@@ -40612,7 +40873,7 @@
         <v>21</v>
       </c>
       <c r="H696">
-        <v>0.59399999999999997</v>
+        <v>0.57799999999999996</v>
       </c>
     </row>
     <row r="697" spans="1:8" x14ac:dyDescent="0.25">
@@ -40638,7 +40899,7 @@
         <v>36</v>
       </c>
       <c r="H697">
-        <v>0.70299999999999996</v>
+        <v>0.79700000000000004</v>
       </c>
     </row>
     <row r="698" spans="1:8" x14ac:dyDescent="0.25">
@@ -40664,7 +40925,7 @@
         <v>41</v>
       </c>
       <c r="H698">
-        <v>0.81299999999999994</v>
+        <v>0.90600000000000003</v>
       </c>
     </row>
     <row r="699" spans="1:8" x14ac:dyDescent="0.25">
@@ -40716,7 +40977,7 @@
         <v>22</v>
       </c>
       <c r="H700">
-        <v>0.65700000000000003</v>
+        <v>0.67200000000000004</v>
       </c>
     </row>
     <row r="701" spans="1:8" x14ac:dyDescent="0.25">
@@ -40742,7 +41003,7 @@
         <v>34</v>
       </c>
       <c r="H701">
-        <v>0.76500000000000001</v>
+        <v>0.78100000000000003</v>
       </c>
     </row>
     <row r="702" spans="1:8" x14ac:dyDescent="0.25">
@@ -40768,7 +41029,7 @@
         <v>45</v>
       </c>
       <c r="H702">
-        <v>0.875</v>
+        <v>0.93799999999999994</v>
       </c>
     </row>
     <row r="703" spans="1:8" x14ac:dyDescent="0.25">
@@ -40794,7 +41055,7 @@
         <v>66</v>
       </c>
       <c r="H703">
-        <v>1.391</v>
+        <v>1.375</v>
       </c>
     </row>
     <row r="704" spans="1:8" x14ac:dyDescent="0.25">
@@ -40820,7 +41081,7 @@
         <v>62</v>
       </c>
       <c r="H704">
-        <v>1.1100000000000001</v>
+        <v>1.234</v>
       </c>
     </row>
     <row r="705" spans="1:8" x14ac:dyDescent="0.25">
@@ -40846,7 +41107,7 @@
         <v>41</v>
       </c>
       <c r="H705">
-        <v>0.82799999999999996</v>
+        <v>0.92200000000000004</v>
       </c>
     </row>
     <row r="706" spans="1:8" x14ac:dyDescent="0.25">
@@ -40872,7 +41133,7 @@
         <v>52</v>
       </c>
       <c r="H706">
-        <v>1.016</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:8" x14ac:dyDescent="0.25">
@@ -40898,7 +41159,7 @@
         <v>23</v>
       </c>
       <c r="H707">
-        <v>0.71899999999999997</v>
+        <v>0.78100000000000003</v>
       </c>
     </row>
     <row r="708" spans="1:8" x14ac:dyDescent="0.25">
@@ -40924,7 +41185,7 @@
         <v>24</v>
       </c>
       <c r="H708">
-        <v>0.73499999999999999</v>
+        <v>0.84399999999999997</v>
       </c>
     </row>
     <row r="709" spans="1:8" x14ac:dyDescent="0.25">
@@ -40950,7 +41211,7 @@
         <v>25</v>
       </c>
       <c r="H709">
-        <v>0.81200000000000006</v>
+        <v>0.92200000000000004</v>
       </c>
     </row>
     <row r="710" spans="1:8" x14ac:dyDescent="0.25">
@@ -40976,7 +41237,7 @@
         <v>23</v>
       </c>
       <c r="H710">
-        <v>0.81200000000000006</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="711" spans="1:8" x14ac:dyDescent="0.25">
@@ -41002,7 +41263,7 @@
         <v>21</v>
       </c>
       <c r="H711">
-        <v>0.65600000000000003</v>
+        <v>0.70299999999999996</v>
       </c>
     </row>
     <row r="712" spans="1:8" x14ac:dyDescent="0.25">
@@ -41028,7 +41289,7 @@
         <v>36</v>
       </c>
       <c r="H712">
-        <v>1.1100000000000001</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="713" spans="1:8" x14ac:dyDescent="0.25">
@@ -41054,7 +41315,7 @@
         <v>41</v>
       </c>
       <c r="H713">
-        <v>1.391</v>
+        <v>1.3440000000000001</v>
       </c>
     </row>
     <row r="714" spans="1:8" x14ac:dyDescent="0.25">
@@ -41080,7 +41341,7 @@
         <v>41</v>
       </c>
       <c r="H714">
-        <v>1.2350000000000001</v>
+        <v>1.3440000000000001</v>
       </c>
     </row>
     <row r="715" spans="1:8" x14ac:dyDescent="0.25">
@@ -41106,7 +41367,7 @@
         <v>40</v>
       </c>
       <c r="H715">
-        <v>1.4219999999999999</v>
+        <v>1.609</v>
       </c>
     </row>
     <row r="716" spans="1:8" x14ac:dyDescent="0.25">
@@ -41132,7 +41393,7 @@
         <v>34</v>
       </c>
       <c r="H716">
-        <v>1.0780000000000001</v>
+        <v>1.0940000000000001</v>
       </c>
     </row>
     <row r="717" spans="1:8" x14ac:dyDescent="0.25">
@@ -41158,7 +41419,7 @@
         <v>45</v>
       </c>
       <c r="H717">
-        <v>1.36</v>
+        <v>1.516</v>
       </c>
     </row>
     <row r="718" spans="1:8" x14ac:dyDescent="0.25">
@@ -41184,7 +41445,7 @@
         <v>66</v>
       </c>
       <c r="H718">
-        <v>2.7970000000000002</v>
+        <v>2.9689999999999999</v>
       </c>
     </row>
     <row r="719" spans="1:8" x14ac:dyDescent="0.25">
@@ -41210,7 +41471,7 @@
         <v>62</v>
       </c>
       <c r="H719">
-        <v>3.2970000000000002</v>
+        <v>3.5939999999999999</v>
       </c>
     </row>
     <row r="720" spans="1:8" x14ac:dyDescent="0.25">
@@ -41236,7 +41497,7 @@
         <v>48</v>
       </c>
       <c r="H720">
-        <v>1.5469999999999999</v>
+        <v>1.625</v>
       </c>
     </row>
     <row r="721" spans="1:8" x14ac:dyDescent="0.25">
@@ -41262,7 +41523,7 @@
         <v>52</v>
       </c>
       <c r="H721">
-        <v>1.532</v>
+        <v>1.6870000000000001</v>
       </c>
     </row>
     <row r="722" spans="1:8" x14ac:dyDescent="0.25">
@@ -41288,7 +41549,7 @@
         <v>23</v>
       </c>
       <c r="H722">
-        <v>0.90600000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723" spans="1:8" x14ac:dyDescent="0.25">
@@ -41314,7 +41575,7 @@
         <v>24</v>
       </c>
       <c r="H723">
-        <v>1</v>
+        <v>1.0620000000000001</v>
       </c>
     </row>
     <row r="724" spans="1:8" x14ac:dyDescent="0.25">
@@ -41340,7 +41601,7 @@
         <v>26</v>
       </c>
       <c r="H724">
-        <v>1.516</v>
+        <v>1.5940000000000001</v>
       </c>
     </row>
     <row r="725" spans="1:8" x14ac:dyDescent="0.25">
@@ -41366,7 +41627,7 @@
         <v>24</v>
       </c>
       <c r="H725">
-        <v>1.0149999999999999</v>
+        <v>1.141</v>
       </c>
     </row>
     <row r="726" spans="1:8" x14ac:dyDescent="0.25">
@@ -41392,7 +41653,7 @@
         <v>21</v>
       </c>
       <c r="H726">
-        <v>0.875</v>
+        <v>0.90600000000000003</v>
       </c>
     </row>
     <row r="727" spans="1:8" x14ac:dyDescent="0.25">
@@ -41418,7 +41679,7 @@
         <v>36</v>
       </c>
       <c r="H727">
-        <v>1.4219999999999999</v>
+        <v>1.4530000000000001</v>
       </c>
     </row>
     <row r="728" spans="1:8" x14ac:dyDescent="0.25">
@@ -41444,7 +41705,7 @@
         <v>41</v>
       </c>
       <c r="H728">
-        <v>2.3279999999999998</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="729" spans="1:8" x14ac:dyDescent="0.25">
@@ -41470,7 +41731,7 @@
         <v>43</v>
       </c>
       <c r="H729">
-        <v>2.157</v>
+        <v>2.2810000000000001</v>
       </c>
     </row>
     <row r="730" spans="1:8" x14ac:dyDescent="0.25">
@@ -41496,7 +41757,7 @@
         <v>43</v>
       </c>
       <c r="H730">
-        <v>3.2040000000000002</v>
+        <v>3.4529999999999998</v>
       </c>
     </row>
     <row r="731" spans="1:8" x14ac:dyDescent="0.25">
@@ -41522,7 +41783,7 @@
         <v>34</v>
       </c>
       <c r="H731">
-        <v>1.5</v>
+        <v>1.484</v>
       </c>
     </row>
     <row r="732" spans="1:8" x14ac:dyDescent="0.25">
@@ -41548,7 +41809,7 @@
         <v>52</v>
       </c>
       <c r="H732">
-        <v>2.875</v>
+        <v>3.2029999999999998</v>
       </c>
     </row>
     <row r="733" spans="1:8" x14ac:dyDescent="0.25">
@@ -41574,7 +41835,7 @@
         <v>66</v>
       </c>
       <c r="H733">
-        <v>5.4690000000000003</v>
+        <v>6.0309999999999997</v>
       </c>
     </row>
     <row r="734" spans="1:8" x14ac:dyDescent="0.25">
@@ -41600,7 +41861,7 @@
         <v>62</v>
       </c>
       <c r="H734">
-        <v>3.5619999999999998</v>
+        <v>4.0309999999999997</v>
       </c>
     </row>
     <row r="735" spans="1:8" x14ac:dyDescent="0.25">
@@ -41626,7 +41887,7 @@
         <v>61</v>
       </c>
       <c r="H735">
-        <v>4.734</v>
+        <v>5.0620000000000003</v>
       </c>
     </row>
     <row r="736" spans="1:8" x14ac:dyDescent="0.25">
@@ -41652,7 +41913,7 @@
         <v>52</v>
       </c>
       <c r="H736">
-        <v>2.4060000000000001</v>
+        <v>2.4849999999999999</v>
       </c>
     </row>
     <row r="737" spans="1:8" x14ac:dyDescent="0.25">
@@ -41678,7 +41939,7 @@
         <v>24</v>
       </c>
       <c r="H737">
-        <v>1.1399999999999999</v>
+        <v>1.1719999999999999</v>
       </c>
     </row>
     <row r="738" spans="1:8" x14ac:dyDescent="0.25">
@@ -41704,7 +41965,7 @@
         <v>25</v>
       </c>
       <c r="H738">
-        <v>1.25</v>
+        <v>1.3129999999999999</v>
       </c>
     </row>
     <row r="739" spans="1:8" x14ac:dyDescent="0.25">
@@ -41730,7 +41991,7 @@
         <v>26</v>
       </c>
       <c r="H739">
-        <v>2.0150000000000001</v>
+        <v>2.1869999999999998</v>
       </c>
     </row>
     <row r="740" spans="1:8" x14ac:dyDescent="0.25">
@@ -41756,7 +42017,7 @@
         <v>24</v>
       </c>
       <c r="H740">
-        <v>1.2030000000000001</v>
+        <v>1.3440000000000001</v>
       </c>
     </row>
     <row r="741" spans="1:8" x14ac:dyDescent="0.25">
@@ -41808,7 +42069,7 @@
         <v>44</v>
       </c>
       <c r="H742">
-        <v>5.0309999999999997</v>
+        <v>5.532</v>
       </c>
     </row>
     <row r="743" spans="1:8" x14ac:dyDescent="0.25">
@@ -41834,7 +42095,7 @@
         <v>41</v>
       </c>
       <c r="H743">
-        <v>3.391</v>
+        <v>3.782</v>
       </c>
     </row>
     <row r="744" spans="1:8" x14ac:dyDescent="0.25">
@@ -41860,7 +42121,7 @@
         <v>43</v>
       </c>
       <c r="H744">
-        <v>3.5470000000000002</v>
+        <v>3.9220000000000002</v>
       </c>
     </row>
     <row r="745" spans="1:8" x14ac:dyDescent="0.25">
@@ -41886,7 +42147,7 @@
         <v>47</v>
       </c>
       <c r="H745">
-        <v>4.3600000000000003</v>
+        <v>4.7039999999999997</v>
       </c>
     </row>
     <row r="746" spans="1:8" x14ac:dyDescent="0.25">
@@ -41912,7 +42173,7 @@
         <v>34</v>
       </c>
       <c r="H746">
-        <v>1.7649999999999999</v>
+        <v>1.8440000000000001</v>
       </c>
     </row>
     <row r="747" spans="1:8" x14ac:dyDescent="0.25">
@@ -41938,7 +42199,7 @@
         <v>64</v>
       </c>
       <c r="H747">
-        <v>7.5629999999999997</v>
+        <v>8.1720000000000006</v>
       </c>
     </row>
     <row r="748" spans="1:8" x14ac:dyDescent="0.25">
@@ -41964,7 +42225,7 @@
         <v>66</v>
       </c>
       <c r="H748">
-        <v>8.9060000000000006</v>
+        <v>9.64</v>
       </c>
     </row>
     <row r="749" spans="1:8" x14ac:dyDescent="0.25">
@@ -41990,7 +42251,7 @@
         <v>62</v>
       </c>
       <c r="H749">
-        <v>6.2350000000000003</v>
+        <v>6.6870000000000003</v>
       </c>
     </row>
     <row r="750" spans="1:8" x14ac:dyDescent="0.25">
@@ -42016,7 +42277,7 @@
         <v>73</v>
       </c>
       <c r="H750">
-        <v>20.094000000000001</v>
+        <v>21.734999999999999</v>
       </c>
     </row>
     <row r="751" spans="1:8" x14ac:dyDescent="0.25">
@@ -42042,7 +42303,7 @@
         <v>52</v>
       </c>
       <c r="H751">
-        <v>3.5470000000000002</v>
+        <v>3.7189999999999999</v>
       </c>
     </row>
     <row r="752" spans="1:8" x14ac:dyDescent="0.25">
@@ -42068,7 +42329,7 @@
         <v>38</v>
       </c>
       <c r="H752">
-        <v>12.875</v>
+        <v>13.625</v>
       </c>
     </row>
     <row r="753" spans="1:8" x14ac:dyDescent="0.25">
@@ -42094,7 +42355,7 @@
         <v>49</v>
       </c>
       <c r="H753">
-        <v>35.813000000000002</v>
+        <v>38.436999999999998</v>
       </c>
     </row>
     <row r="754" spans="1:8" x14ac:dyDescent="0.25">
@@ -42120,7 +42381,7 @@
         <v>41</v>
       </c>
       <c r="H754">
-        <v>25.937999999999999</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="755" spans="1:8" x14ac:dyDescent="0.25">
@@ -42146,7 +42407,7 @@
         <v>40</v>
       </c>
       <c r="H755">
-        <v>9.5470000000000006</v>
+        <v>10.172000000000001</v>
       </c>
     </row>
     <row r="756" spans="1:8" x14ac:dyDescent="0.25">
@@ -42172,7 +42433,7 @@
         <v>40</v>
       </c>
       <c r="H756">
-        <v>17.875</v>
+        <v>19.297000000000001</v>
       </c>
     </row>
     <row r="757" spans="1:8" x14ac:dyDescent="0.25">
@@ -42198,7 +42459,7 @@
         <v>63</v>
       </c>
       <c r="H757">
-        <v>27.562000000000001</v>
+        <v>29.780999999999999</v>
       </c>
     </row>
     <row r="758" spans="1:8" x14ac:dyDescent="0.25">
@@ -42224,7 +42485,7 @@
         <v>83</v>
       </c>
       <c r="H758">
-        <v>49.688000000000002</v>
+        <v>53.969000000000001</v>
       </c>
     </row>
     <row r="759" spans="1:8" x14ac:dyDescent="0.25">
@@ -42250,7 +42511,7 @@
         <v>76</v>
       </c>
       <c r="H759">
-        <v>34.765999999999998</v>
+        <v>37.515999999999998</v>
       </c>
     </row>
     <row r="760" spans="1:8" x14ac:dyDescent="0.25">
@@ -42276,7 +42537,7 @@
         <v>73</v>
       </c>
       <c r="H760">
-        <v>48.703000000000003</v>
+        <v>52.046999999999997</v>
       </c>
     </row>
     <row r="761" spans="1:8" x14ac:dyDescent="0.25">
@@ -42302,7 +42563,7 @@
         <v>74</v>
       </c>
       <c r="H761">
-        <v>56.688000000000002</v>
+        <v>60.938000000000002</v>
       </c>
     </row>
     <row r="762" spans="1:8" x14ac:dyDescent="0.25">
@@ -42328,7 +42589,7 @@
         <v>96</v>
       </c>
       <c r="H762">
-        <v>94.625</v>
+        <v>102.15600000000001</v>
       </c>
     </row>
     <row r="763" spans="1:8" x14ac:dyDescent="0.25">
@@ -42370,6 +42631,12 @@
       <c r="F764" t="s">
         <v>1</v>
       </c>
+      <c r="G764">
+        <v>112</v>
+      </c>
+      <c r="H764">
+        <v>121.313</v>
+      </c>
     </row>
     <row r="765" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
@@ -42394,7 +42661,7 @@
         <v>105</v>
       </c>
       <c r="H765">
-        <v>62.625</v>
+        <v>68.203000000000003</v>
       </c>
     </row>
     <row r="766" spans="1:8" x14ac:dyDescent="0.25">
@@ -42420,7 +42687,7 @@
         <v>103</v>
       </c>
       <c r="H766">
-        <v>63.921999999999997</v>
+        <v>69.453000000000003</v>
       </c>
     </row>
     <row r="767" spans="1:8" x14ac:dyDescent="0.25">
@@ -42446,7 +42713,7 @@
         <v>38</v>
       </c>
       <c r="H767">
-        <v>19.140999999999998</v>
+        <v>20.265000000000001</v>
       </c>
     </row>
     <row r="768" spans="1:8" x14ac:dyDescent="0.25">
@@ -42472,7 +42739,7 @@
         <v>49</v>
       </c>
       <c r="H768">
-        <v>62.734999999999999</v>
+        <v>67.453000000000003</v>
       </c>
     </row>
     <row r="769" spans="1:8" x14ac:dyDescent="0.25">
@@ -42498,7 +42765,7 @@
         <v>41</v>
       </c>
       <c r="H769">
-        <v>23.125</v>
+        <v>24.984000000000002</v>
       </c>
     </row>
     <row r="770" spans="1:8" x14ac:dyDescent="0.25">
@@ -42524,7 +42791,7 @@
         <v>41</v>
       </c>
       <c r="H770">
-        <v>21.155999999999999</v>
+        <v>22.765000000000001</v>
       </c>
     </row>
     <row r="771" spans="1:8" x14ac:dyDescent="0.25">
@@ -42550,7 +42817,7 @@
         <v>40</v>
       </c>
       <c r="H771">
-        <v>21.844000000000001</v>
+        <v>23.420999999999999</v>
       </c>
     </row>
     <row r="772" spans="1:8" x14ac:dyDescent="0.25">
@@ -42576,7 +42843,7 @@
         <v>63</v>
       </c>
       <c r="H772">
-        <v>56</v>
+        <v>60.094000000000001</v>
       </c>
     </row>
     <row r="773" spans="1:8" x14ac:dyDescent="0.25">
@@ -42598,6 +42865,12 @@
       <c r="F773" t="s">
         <v>1</v>
       </c>
+      <c r="G773">
+        <v>83</v>
+      </c>
+      <c r="H773">
+        <v>110.265</v>
+      </c>
     </row>
     <row r="774" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
@@ -42622,7 +42895,7 @@
         <v>76</v>
       </c>
       <c r="H774">
-        <v>39.186999999999998</v>
+        <v>42.686999999999998</v>
       </c>
     </row>
     <row r="775" spans="1:8" x14ac:dyDescent="0.25">
@@ -42648,7 +42921,7 @@
         <v>73</v>
       </c>
       <c r="H775">
-        <v>41.906999999999996</v>
+        <v>45.438000000000002</v>
       </c>
     </row>
     <row r="776" spans="1:8" x14ac:dyDescent="0.25">
@@ -42674,7 +42947,7 @@
         <v>74</v>
       </c>
       <c r="H776">
-        <v>70.953999999999994</v>
+        <v>76.516000000000005</v>
       </c>
     </row>
     <row r="777" spans="1:8" x14ac:dyDescent="0.25">
@@ -42696,6 +42969,12 @@
       <c r="F777" t="s">
         <v>1</v>
       </c>
+      <c r="G777">
+        <v>96</v>
+      </c>
+      <c r="H777">
+        <v>160.89099999999999</v>
+      </c>
     </row>
     <row r="778" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
@@ -42716,6 +42995,12 @@
       <c r="F778" t="s">
         <v>1</v>
       </c>
+      <c r="G778">
+        <v>128</v>
+      </c>
+      <c r="H778">
+        <v>152.56299999999999</v>
+      </c>
     </row>
     <row r="779" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
@@ -42736,6 +43021,12 @@
       <c r="F779" t="s">
         <v>1</v>
       </c>
+      <c r="G779">
+        <v>112</v>
+      </c>
+      <c r="H779">
+        <v>225.84399999999999</v>
+      </c>
     </row>
     <row r="780" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
@@ -42756,6 +43047,12 @@
       <c r="F780" t="s">
         <v>1</v>
       </c>
+      <c r="G780">
+        <v>105</v>
+      </c>
+      <c r="H780">
+        <v>120.46899999999999</v>
+      </c>
     </row>
     <row r="781" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
@@ -42776,6 +43073,12 @@
       <c r="F781" t="s">
         <v>1</v>
       </c>
+      <c r="G781">
+        <v>103</v>
+      </c>
+      <c r="H781">
+        <v>123.907</v>
+      </c>
     </row>
     <row r="782" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
@@ -42800,7 +43103,7 @@
         <v>40</v>
       </c>
       <c r="H782">
-        <v>25.702999999999999</v>
+        <v>27.797000000000001</v>
       </c>
     </row>
     <row r="783" spans="1:8" x14ac:dyDescent="0.25">
@@ -42826,7 +43129,7 @@
         <v>49</v>
       </c>
       <c r="H783">
-        <v>48.969000000000001</v>
+        <v>52.328000000000003</v>
       </c>
     </row>
     <row r="784" spans="1:8" x14ac:dyDescent="0.25">
@@ -42852,7 +43155,7 @@
         <v>41</v>
       </c>
       <c r="H784">
-        <v>29.734000000000002</v>
+        <v>31.655999999999999</v>
       </c>
     </row>
     <row r="785" spans="1:8" x14ac:dyDescent="0.25">
@@ -42878,7 +43181,7 @@
         <v>41</v>
       </c>
       <c r="H785">
-        <v>37.061999999999998</v>
+        <v>39.89</v>
       </c>
     </row>
     <row r="786" spans="1:8" x14ac:dyDescent="0.25">
@@ -42904,7 +43207,7 @@
         <v>43</v>
       </c>
       <c r="H786">
-        <v>30.984999999999999</v>
+        <v>33.36</v>
       </c>
     </row>
     <row r="787" spans="1:8" x14ac:dyDescent="0.25">
@@ -42930,7 +43233,7 @@
         <v>77</v>
       </c>
       <c r="H787">
-        <v>43.828000000000003</v>
+        <v>47.421999999999997</v>
       </c>
     </row>
     <row r="788" spans="1:8" x14ac:dyDescent="0.25">
@@ -42956,7 +43259,7 @@
         <v>83</v>
       </c>
       <c r="H788">
-        <v>86.406000000000006</v>
+        <v>93.796999999999997</v>
       </c>
     </row>
     <row r="789" spans="1:8" x14ac:dyDescent="0.25">
@@ -42978,6 +43281,12 @@
       <c r="F789" t="s">
         <v>1</v>
       </c>
+      <c r="G789">
+        <v>76</v>
+      </c>
+      <c r="H789">
+        <v>148.03100000000001</v>
+      </c>
     </row>
     <row r="790" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
@@ -43002,7 +43311,7 @@
         <v>73</v>
       </c>
       <c r="H790">
-        <v>80.358999999999995</v>
+        <v>86.375</v>
       </c>
     </row>
     <row r="791" spans="1:8" x14ac:dyDescent="0.25">
@@ -43028,7 +43337,7 @@
         <v>76</v>
       </c>
       <c r="H791">
-        <v>46.171999999999997</v>
+        <v>49.563000000000002</v>
       </c>
     </row>
     <row r="792" spans="1:8" x14ac:dyDescent="0.25">
@@ -43054,7 +43363,7 @@
         <v>99</v>
       </c>
       <c r="H792">
-        <v>77.188000000000002</v>
+        <v>83.563000000000002</v>
       </c>
     </row>
     <row r="793" spans="1:8" x14ac:dyDescent="0.25">
@@ -43076,6 +43385,12 @@
       <c r="F793" t="s">
         <v>1</v>
       </c>
+      <c r="G793">
+        <v>128</v>
+      </c>
+      <c r="H793">
+        <v>111.063</v>
+      </c>
     </row>
     <row r="794" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
@@ -43096,6 +43411,12 @@
       <c r="F794" t="s">
         <v>1</v>
       </c>
+      <c r="G794">
+        <v>112</v>
+      </c>
+      <c r="H794">
+        <v>125.735</v>
+      </c>
     </row>
     <row r="795" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
@@ -43116,6 +43437,12 @@
       <c r="F795" t="s">
         <v>1</v>
       </c>
+      <c r="G795">
+        <v>105</v>
+      </c>
+      <c r="H795">
+        <v>207.422</v>
+      </c>
     </row>
     <row r="796" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
@@ -43136,6 +43463,12 @@
       <c r="F796" t="s">
         <v>1</v>
       </c>
+      <c r="G796">
+        <v>103</v>
+      </c>
+      <c r="H796">
+        <v>177.43700000000001</v>
+      </c>
     </row>
     <row r="797" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
@@ -43160,7 +43493,7 @@
         <v>40</v>
       </c>
       <c r="H797">
-        <v>30.5</v>
+        <v>32.296999999999997</v>
       </c>
     </row>
     <row r="798" spans="1:8" x14ac:dyDescent="0.25">
@@ -43186,7 +43519,7 @@
         <v>49</v>
       </c>
       <c r="H798">
-        <v>70.218999999999994</v>
+        <v>75.063000000000002</v>
       </c>
     </row>
     <row r="799" spans="1:8" x14ac:dyDescent="0.25">
@@ -43212,7 +43545,7 @@
         <v>46</v>
       </c>
       <c r="H799">
-        <v>69</v>
+        <v>73.813000000000002</v>
       </c>
     </row>
     <row r="800" spans="1:8" x14ac:dyDescent="0.25">
@@ -43238,7 +43571,7 @@
         <v>41</v>
       </c>
       <c r="H800">
-        <v>24.984000000000002</v>
+        <v>26.484999999999999</v>
       </c>
     </row>
     <row r="801" spans="1:8" x14ac:dyDescent="0.25">
@@ -43264,7 +43597,7 @@
         <v>43</v>
       </c>
       <c r="H801">
-        <v>41.578000000000003</v>
+        <v>44.188000000000002</v>
       </c>
     </row>
     <row r="802" spans="1:8" x14ac:dyDescent="0.25">
@@ -43290,7 +43623,7 @@
         <v>77</v>
       </c>
       <c r="H802">
-        <v>90.046999999999997</v>
+        <v>97.016000000000005</v>
       </c>
     </row>
     <row r="803" spans="1:8" x14ac:dyDescent="0.25">
@@ -43316,7 +43649,7 @@
         <v>83</v>
       </c>
       <c r="H803">
-        <v>65.328000000000003</v>
+        <v>70.766000000000005</v>
       </c>
     </row>
     <row r="804" spans="1:8" x14ac:dyDescent="0.25">
@@ -43342,7 +43675,7 @@
         <v>81</v>
       </c>
       <c r="H804">
-        <v>82.921999999999997</v>
+        <v>89.796999999999997</v>
       </c>
     </row>
     <row r="805" spans="1:8" x14ac:dyDescent="0.25">
@@ -43364,6 +43697,12 @@
       <c r="F805" t="s">
         <v>1</v>
       </c>
+      <c r="G805">
+        <v>73</v>
+      </c>
+      <c r="H805">
+        <v>175.28200000000001</v>
+      </c>
     </row>
     <row r="806" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
@@ -43384,6 +43723,12 @@
       <c r="F806" t="s">
         <v>1</v>
       </c>
+      <c r="G806">
+        <v>76</v>
+      </c>
+      <c r="H806">
+        <v>105.562</v>
+      </c>
     </row>
     <row r="807" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
@@ -43404,6 +43749,12 @@
       <c r="F807" t="s">
         <v>1</v>
       </c>
+      <c r="G807">
+        <v>99</v>
+      </c>
+      <c r="H807">
+        <v>153.15700000000001</v>
+      </c>
     </row>
     <row r="808" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
@@ -43464,6 +43815,12 @@
       <c r="F810" t="s">
         <v>1</v>
       </c>
+      <c r="G810">
+        <v>105</v>
+      </c>
+      <c r="H810">
+        <v>107.76600000000001</v>
+      </c>
     </row>
     <row r="811" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
@@ -43508,7 +43865,7 @@
         <v>40</v>
       </c>
       <c r="H812">
-        <v>30.719000000000001</v>
+        <v>32.890999999999998</v>
       </c>
     </row>
     <row r="813" spans="1:8" x14ac:dyDescent="0.25">
@@ -43534,7 +43891,7 @@
         <v>49</v>
       </c>
       <c r="H813">
-        <v>53.656999999999996</v>
+        <v>57.515000000000001</v>
       </c>
     </row>
     <row r="814" spans="1:8" x14ac:dyDescent="0.25">
@@ -43560,7 +43917,7 @@
         <v>46</v>
       </c>
       <c r="H814">
-        <v>54.734000000000002</v>
+        <v>58.734999999999999</v>
       </c>
     </row>
     <row r="815" spans="1:8" x14ac:dyDescent="0.25">
@@ -43586,7 +43943,7 @@
         <v>44</v>
       </c>
       <c r="H815">
-        <v>60.86</v>
+        <v>64.938000000000002</v>
       </c>
     </row>
     <row r="816" spans="1:8" x14ac:dyDescent="0.25">
@@ -43612,7 +43969,7 @@
         <v>43</v>
       </c>
       <c r="H816">
-        <v>62.703000000000003</v>
+        <v>66.703000000000003</v>
       </c>
     </row>
     <row r="817" spans="1:8" x14ac:dyDescent="0.25">
@@ -43638,7 +43995,7 @@
         <v>77</v>
       </c>
       <c r="H817">
-        <v>71.625</v>
+        <v>77.375</v>
       </c>
     </row>
     <row r="818" spans="1:8" x14ac:dyDescent="0.25">
@@ -43680,6 +44037,12 @@
       <c r="F819" t="s">
         <v>1</v>
       </c>
+      <c r="G819">
+        <v>81</v>
+      </c>
+      <c r="H819">
+        <v>119.09399999999999</v>
+      </c>
     </row>
     <row r="820" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
@@ -43700,6 +44063,12 @@
       <c r="F820" t="s">
         <v>1</v>
       </c>
+      <c r="G820">
+        <v>73</v>
+      </c>
+      <c r="H820">
+        <v>163.40600000000001</v>
+      </c>
     </row>
     <row r="821" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
@@ -43720,6 +44089,12 @@
       <c r="F821" t="s">
         <v>1</v>
       </c>
+      <c r="G821">
+        <v>76</v>
+      </c>
+      <c r="H821">
+        <v>108.84399999999999</v>
+      </c>
     </row>
     <row r="822" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
@@ -43740,6 +44115,12 @@
       <c r="F822" t="s">
         <v>1</v>
       </c>
+      <c r="G822">
+        <v>99</v>
+      </c>
+      <c r="H822">
+        <v>198.64099999999999</v>
+      </c>
     </row>
     <row r="823" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
@@ -43800,6 +44181,12 @@
       <c r="F825" t="s">
         <v>1</v>
       </c>
+      <c r="G825">
+        <v>108</v>
+      </c>
+      <c r="H825">
+        <v>162.31200000000001</v>
+      </c>
     </row>
     <row r="826" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
@@ -43844,7 +44231,7 @@
         <v>42</v>
       </c>
       <c r="H827">
-        <v>42.703000000000003</v>
+        <v>45.469000000000001</v>
       </c>
     </row>
     <row r="828" spans="1:8" x14ac:dyDescent="0.25">
@@ -43870,7 +44257,7 @@
         <v>49</v>
       </c>
       <c r="H828">
-        <v>65.64</v>
+        <v>70.546999999999997</v>
       </c>
     </row>
     <row r="829" spans="1:8" x14ac:dyDescent="0.25">
@@ -43896,7 +44283,7 @@
         <v>46</v>
       </c>
       <c r="H829">
-        <v>73.343999999999994</v>
+        <v>78.671999999999997</v>
       </c>
     </row>
     <row r="830" spans="1:8" x14ac:dyDescent="0.25">
@@ -43922,7 +44309,7 @@
         <v>44</v>
       </c>
       <c r="H830">
-        <v>39.328000000000003</v>
+        <v>42.421999999999997</v>
       </c>
     </row>
     <row r="831" spans="1:8" x14ac:dyDescent="0.25">
@@ -43948,7 +44335,7 @@
         <v>43</v>
       </c>
       <c r="H831">
-        <v>84.358999999999995</v>
+        <v>90.218999999999994</v>
       </c>
     </row>
     <row r="832" spans="1:8" x14ac:dyDescent="0.25">
@@ -43970,6 +44357,12 @@
       <c r="F832" t="s">
         <v>1</v>
       </c>
+      <c r="G832">
+        <v>80</v>
+      </c>
+      <c r="H832">
+        <v>127.812</v>
+      </c>
     </row>
     <row r="833" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
@@ -43990,6 +44383,12 @@
       <c r="F833" t="s">
         <v>1</v>
       </c>
+      <c r="G833">
+        <v>88</v>
+      </c>
+      <c r="H833">
+        <v>223.73500000000001</v>
+      </c>
     </row>
     <row r="834" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
@@ -44010,6 +44409,12 @@
       <c r="F834" t="s">
         <v>1</v>
       </c>
+      <c r="G834">
+        <v>81</v>
+      </c>
+      <c r="H834">
+        <v>165.78100000000001</v>
+      </c>
     </row>
     <row r="835" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
@@ -44034,7 +44439,7 @@
         <v>73</v>
       </c>
       <c r="H835">
-        <v>85.843999999999994</v>
+        <v>92.671999999999997</v>
       </c>
     </row>
     <row r="836" spans="1:8" x14ac:dyDescent="0.25">
@@ -44056,6 +44461,12 @@
       <c r="F836" t="s">
         <v>1</v>
       </c>
+      <c r="G836">
+        <v>76</v>
+      </c>
+      <c r="H836">
+        <v>119.34399999999999</v>
+      </c>
     </row>
     <row r="837" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
@@ -44116,6 +44527,12 @@
       <c r="F839" t="s">
         <v>1</v>
       </c>
+      <c r="G839">
+        <v>120</v>
+      </c>
+      <c r="H839">
+        <v>174.578</v>
+      </c>
     </row>
     <row r="840" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
@@ -44136,6 +44553,12 @@
       <c r="F840" t="s">
         <v>1</v>
       </c>
+      <c r="G840">
+        <v>108</v>
+      </c>
+      <c r="H840">
+        <v>158.07900000000001</v>
+      </c>
     </row>
     <row r="841" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
@@ -44156,6 +44579,12 @@
       <c r="F841" t="s">
         <v>1</v>
       </c>
+      <c r="G841">
+        <v>103</v>
+      </c>
+      <c r="H841">
+        <v>142.76599999999999</v>
+      </c>
     </row>
     <row r="842" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
@@ -44180,7 +44609,7 @@
         <v>27</v>
       </c>
       <c r="H842">
-        <v>3.3439999999999999</v>
+        <v>3.5630000000000002</v>
       </c>
     </row>
     <row r="843" spans="1:8" x14ac:dyDescent="0.25">
@@ -44206,7 +44635,7 @@
         <v>37</v>
       </c>
       <c r="H843">
-        <v>3.36</v>
+        <v>3.5310000000000001</v>
       </c>
     </row>
     <row r="844" spans="1:8" x14ac:dyDescent="0.25">
@@ -44232,7 +44661,7 @@
         <v>15</v>
       </c>
       <c r="H844">
-        <v>3.25</v>
+        <v>3.4529999999999998</v>
       </c>
     </row>
     <row r="845" spans="1:8" x14ac:dyDescent="0.25">
@@ -44258,7 +44687,7 @@
         <v>38</v>
       </c>
       <c r="H845">
-        <v>3.8119999999999998</v>
+        <v>4.0469999999999997</v>
       </c>
     </row>
     <row r="846" spans="1:8" x14ac:dyDescent="0.25">
@@ -44284,7 +44713,7 @@
         <v>40</v>
       </c>
       <c r="H846">
-        <v>3.5779999999999998</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="847" spans="1:8" x14ac:dyDescent="0.25">
@@ -44310,7 +44739,7 @@
         <v>44</v>
       </c>
       <c r="H847">
-        <v>3.3119999999999998</v>
+        <v>3.625</v>
       </c>
     </row>
     <row r="848" spans="1:8" x14ac:dyDescent="0.25">
@@ -44336,7 +44765,7 @@
         <v>64</v>
       </c>
       <c r="H848">
-        <v>4.25</v>
+        <v>4.4690000000000003</v>
       </c>
     </row>
     <row r="849" spans="1:8" x14ac:dyDescent="0.25">
@@ -44362,7 +44791,7 @@
         <v>26</v>
       </c>
       <c r="H849">
-        <v>3.359</v>
+        <v>3.5790000000000002</v>
       </c>
     </row>
     <row r="850" spans="1:8" x14ac:dyDescent="0.25">
@@ -44388,7 +44817,7 @@
         <v>64</v>
       </c>
       <c r="H850">
-        <v>5.641</v>
+        <v>6</v>
       </c>
     </row>
     <row r="851" spans="1:8" x14ac:dyDescent="0.25">
@@ -44414,7 +44843,7 @@
         <v>74</v>
       </c>
       <c r="H851">
-        <v>6.375</v>
+        <v>6.875</v>
       </c>
     </row>
     <row r="852" spans="1:8" x14ac:dyDescent="0.25">
@@ -44440,7 +44869,7 @@
         <v>60</v>
       </c>
       <c r="H852">
-        <v>4.1100000000000003</v>
+        <v>4.3440000000000003</v>
       </c>
     </row>
     <row r="853" spans="1:8" x14ac:dyDescent="0.25">
@@ -44466,7 +44895,7 @@
         <v>86</v>
       </c>
       <c r="H853">
-        <v>5.984</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="854" spans="1:8" x14ac:dyDescent="0.25">
@@ -44492,7 +44921,7 @@
         <v>37</v>
       </c>
       <c r="H854">
-        <v>3.86</v>
+        <v>4.109</v>
       </c>
     </row>
     <row r="855" spans="1:8" x14ac:dyDescent="0.25">
@@ -44518,7 +44947,7 @@
         <v>87</v>
       </c>
       <c r="H855">
-        <v>11.827999999999999</v>
+        <v>12.702999999999999</v>
       </c>
     </row>
     <row r="856" spans="1:8" x14ac:dyDescent="0.25">
@@ -44544,7 +44973,7 @@
         <v>95</v>
       </c>
       <c r="H856">
-        <v>11.577999999999999</v>
+        <v>12.561999999999999</v>
       </c>
     </row>
     <row r="857" spans="1:8" x14ac:dyDescent="0.25">
@@ -44570,7 +44999,7 @@
         <v>31</v>
       </c>
       <c r="H857">
-        <v>3.907</v>
+        <v>4.0780000000000003</v>
       </c>
     </row>
     <row r="858" spans="1:8" x14ac:dyDescent="0.25">
@@ -44596,7 +45025,7 @@
         <v>37</v>
       </c>
       <c r="H858">
-        <v>4.157</v>
+        <v>4.407</v>
       </c>
     </row>
     <row r="859" spans="1:8" x14ac:dyDescent="0.25">
@@ -44622,7 +45051,7 @@
         <v>33</v>
       </c>
       <c r="H859">
-        <v>4.282</v>
+        <v>4.5469999999999997</v>
       </c>
     </row>
     <row r="860" spans="1:8" x14ac:dyDescent="0.25">
@@ -44648,7 +45077,7 @@
         <v>38</v>
       </c>
       <c r="H860">
-        <v>5.3440000000000003</v>
+        <v>5.8129999999999997</v>
       </c>
     </row>
     <row r="861" spans="1:8" x14ac:dyDescent="0.25">
@@ -44674,7 +45103,7 @@
         <v>40</v>
       </c>
       <c r="H861">
-        <v>4.75</v>
+        <v>5.125</v>
       </c>
     </row>
     <row r="862" spans="1:8" x14ac:dyDescent="0.25">
@@ -44700,7 +45129,7 @@
         <v>54</v>
       </c>
       <c r="H862">
-        <v>5.4690000000000003</v>
+        <v>6.0469999999999997</v>
       </c>
     </row>
     <row r="863" spans="1:8" x14ac:dyDescent="0.25">
@@ -44726,7 +45155,7 @@
         <v>64</v>
       </c>
       <c r="H863">
-        <v>9.5939999999999994</v>
+        <v>10.422000000000001</v>
       </c>
     </row>
     <row r="864" spans="1:8" x14ac:dyDescent="0.25">
@@ -44752,7 +45181,7 @@
         <v>60</v>
       </c>
       <c r="H864">
-        <v>8.9060000000000006</v>
+        <v>9.532</v>
       </c>
     </row>
     <row r="865" spans="1:8" x14ac:dyDescent="0.25">
@@ -44778,7 +45207,7 @@
         <v>64</v>
       </c>
       <c r="H865">
-        <v>16.922000000000001</v>
+        <v>18.359000000000002</v>
       </c>
     </row>
     <row r="866" spans="1:8" x14ac:dyDescent="0.25">
@@ -44804,7 +45233,7 @@
         <v>74</v>
       </c>
       <c r="H866">
-        <v>21.234000000000002</v>
+        <v>23.077999999999999</v>
       </c>
     </row>
     <row r="867" spans="1:8" x14ac:dyDescent="0.25">
@@ -44830,7 +45259,7 @@
         <v>80</v>
       </c>
       <c r="H867">
-        <v>27.077999999999999</v>
+        <v>29.140999999999998</v>
       </c>
     </row>
     <row r="868" spans="1:8" x14ac:dyDescent="0.25">
@@ -44856,7 +45285,7 @@
         <v>86</v>
       </c>
       <c r="H868">
-        <v>18.672000000000001</v>
+        <v>20.187000000000001</v>
       </c>
     </row>
     <row r="869" spans="1:8" x14ac:dyDescent="0.25">
@@ -44882,7 +45311,7 @@
         <v>83</v>
       </c>
       <c r="H869">
-        <v>22.797000000000001</v>
+        <v>24.577999999999999</v>
       </c>
     </row>
     <row r="870" spans="1:8" x14ac:dyDescent="0.25">
@@ -44908,7 +45337,7 @@
         <v>87</v>
       </c>
       <c r="H870">
-        <v>21.579000000000001</v>
+        <v>23.609000000000002</v>
       </c>
     </row>
     <row r="871" spans="1:8" x14ac:dyDescent="0.25">
@@ -44934,7 +45363,7 @@
         <v>95</v>
       </c>
       <c r="H871">
-        <v>16.265000000000001</v>
+        <v>17.530999999999999</v>
       </c>
     </row>
     <row r="872" spans="1:8" x14ac:dyDescent="0.25">
@@ -44960,7 +45389,7 @@
         <v>38</v>
       </c>
       <c r="H872">
-        <v>5.4690000000000003</v>
+        <v>5.734</v>
       </c>
     </row>
     <row r="873" spans="1:8" x14ac:dyDescent="0.25">
@@ -44986,7 +45415,7 @@
         <v>37</v>
       </c>
       <c r="H873">
-        <v>5.7649999999999997</v>
+        <v>6.3440000000000003</v>
       </c>
     </row>
     <row r="874" spans="1:8" x14ac:dyDescent="0.25">
@@ -45012,7 +45441,7 @@
         <v>41</v>
       </c>
       <c r="H874">
-        <v>8.766</v>
+        <v>9.407</v>
       </c>
     </row>
     <row r="875" spans="1:8" x14ac:dyDescent="0.25">
@@ -45038,7 +45467,7 @@
         <v>40</v>
       </c>
       <c r="H875">
-        <v>8.0779999999999994</v>
+        <v>8.5790000000000006</v>
       </c>
     </row>
     <row r="876" spans="1:8" x14ac:dyDescent="0.25">
@@ -45064,7 +45493,7 @@
         <v>40</v>
       </c>
       <c r="H876">
-        <v>7.4219999999999997</v>
+        <v>8.36</v>
       </c>
     </row>
     <row r="877" spans="1:8" x14ac:dyDescent="0.25">
@@ -45090,7 +45519,7 @@
         <v>63</v>
       </c>
       <c r="H877">
-        <v>20.407</v>
+        <v>21.812999999999999</v>
       </c>
     </row>
     <row r="878" spans="1:8" x14ac:dyDescent="0.25">
@@ -45116,7 +45545,7 @@
         <v>64</v>
       </c>
       <c r="H878">
-        <v>17.782</v>
+        <v>19</v>
       </c>
     </row>
     <row r="879" spans="1:8" x14ac:dyDescent="0.25">
@@ -45142,7 +45571,7 @@
         <v>76</v>
       </c>
       <c r="H879">
-        <v>30.155999999999999</v>
+        <v>32.078000000000003</v>
       </c>
     </row>
     <row r="880" spans="1:8" x14ac:dyDescent="0.25">
@@ -45168,7 +45597,7 @@
         <v>73</v>
       </c>
       <c r="H880">
-        <v>30.437999999999999</v>
+        <v>32.594000000000001</v>
       </c>
     </row>
     <row r="881" spans="1:8" x14ac:dyDescent="0.25">
@@ -45194,7 +45623,7 @@
         <v>74</v>
       </c>
       <c r="H881">
-        <v>27.234000000000002</v>
+        <v>29.265999999999998</v>
       </c>
     </row>
     <row r="882" spans="1:8" x14ac:dyDescent="0.25">
@@ -45220,7 +45649,7 @@
         <v>96</v>
       </c>
       <c r="H882">
-        <v>58.734000000000002</v>
+        <v>62.921999999999997</v>
       </c>
     </row>
     <row r="883" spans="1:8" x14ac:dyDescent="0.25">
@@ -45246,7 +45675,7 @@
         <v>86</v>
       </c>
       <c r="H883">
-        <v>42.859000000000002</v>
+        <v>46.25</v>
       </c>
     </row>
     <row r="884" spans="1:8" x14ac:dyDescent="0.25">
@@ -45268,6 +45697,12 @@
       <c r="F884" t="s">
         <v>1</v>
       </c>
+      <c r="G884">
+        <v>112</v>
+      </c>
+      <c r="H884">
+        <v>116.21899999999999</v>
+      </c>
     </row>
     <row r="885" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
@@ -45292,7 +45727,7 @@
         <v>105</v>
       </c>
       <c r="H885">
-        <v>51.546999999999997</v>
+        <v>55.515000000000001</v>
       </c>
     </row>
     <row r="886" spans="1:8" x14ac:dyDescent="0.25">
@@ -45318,7 +45753,7 @@
         <v>95</v>
       </c>
       <c r="H886">
-        <v>32.171999999999997</v>
+        <v>34.875</v>
       </c>
     </row>
     <row r="887" spans="1:8" x14ac:dyDescent="0.25">
@@ -45344,7 +45779,7 @@
         <v>38</v>
       </c>
       <c r="H887">
-        <v>8.2189999999999994</v>
+        <v>8.984</v>
       </c>
     </row>
     <row r="888" spans="1:8" x14ac:dyDescent="0.25">
@@ -45370,7 +45805,7 @@
         <v>37</v>
       </c>
       <c r="H888">
-        <v>10.406000000000001</v>
+        <v>11.391</v>
       </c>
     </row>
     <row r="889" spans="1:8" x14ac:dyDescent="0.25">
@@ -45396,7 +45831,7 @@
         <v>41</v>
       </c>
       <c r="H889">
-        <v>13.313000000000001</v>
+        <v>14.266</v>
       </c>
     </row>
     <row r="890" spans="1:8" x14ac:dyDescent="0.25">
@@ -45422,7 +45857,7 @@
         <v>40</v>
       </c>
       <c r="H890">
-        <v>10.468999999999999</v>
+        <v>11.452999999999999</v>
       </c>
     </row>
     <row r="891" spans="1:8" x14ac:dyDescent="0.25">
@@ -45448,7 +45883,7 @@
         <v>40</v>
       </c>
       <c r="H891">
-        <v>11.234</v>
+        <v>12.327999999999999</v>
       </c>
     </row>
     <row r="892" spans="1:8" x14ac:dyDescent="0.25">
@@ -45474,7 +45909,7 @@
         <v>63</v>
       </c>
       <c r="H892">
-        <v>17.687000000000001</v>
+        <v>19.234000000000002</v>
       </c>
     </row>
     <row r="893" spans="1:8" x14ac:dyDescent="0.25">
@@ -45500,7 +45935,7 @@
         <v>64</v>
       </c>
       <c r="H893">
-        <v>31.625</v>
+        <v>33.921999999999997</v>
       </c>
     </row>
     <row r="894" spans="1:8" x14ac:dyDescent="0.25">
@@ -45526,7 +45961,7 @@
         <v>76</v>
       </c>
       <c r="H894">
-        <v>33.125</v>
+        <v>35.156999999999996</v>
       </c>
     </row>
     <row r="895" spans="1:8" x14ac:dyDescent="0.25">
@@ -45552,7 +45987,7 @@
         <v>73</v>
       </c>
       <c r="H895">
-        <v>67.436999999999998</v>
+        <v>72.468000000000004</v>
       </c>
     </row>
     <row r="896" spans="1:8" x14ac:dyDescent="0.25">
@@ -45578,7 +46013,7 @@
         <v>74</v>
       </c>
       <c r="H896">
-        <v>57.859000000000002</v>
+        <v>62.078000000000003</v>
       </c>
     </row>
     <row r="897" spans="1:8" x14ac:dyDescent="0.25">
@@ -45604,7 +46039,7 @@
         <v>96</v>
       </c>
       <c r="H897">
-        <v>47.079000000000001</v>
+        <v>50.561999999999998</v>
       </c>
     </row>
     <row r="898" spans="1:8" x14ac:dyDescent="0.25">
@@ -45630,7 +46065,7 @@
         <v>86</v>
       </c>
       <c r="H898">
-        <v>31.157</v>
+        <v>33.671999999999997</v>
       </c>
     </row>
     <row r="899" spans="1:8" x14ac:dyDescent="0.25">
@@ -45656,7 +46091,7 @@
         <v>112</v>
       </c>
       <c r="H899">
-        <v>47.813000000000002</v>
+        <v>51.515999999999998</v>
       </c>
     </row>
     <row r="900" spans="1:8" x14ac:dyDescent="0.25">
@@ -45678,6 +46113,12 @@
       <c r="F900" t="s">
         <v>1</v>
       </c>
+      <c r="G900">
+        <v>105</v>
+      </c>
+      <c r="H900">
+        <v>143.65600000000001</v>
+      </c>
     </row>
     <row r="901" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A901" t="s">
@@ -45702,7 +46143,7 @@
         <v>95</v>
       </c>
       <c r="H901">
-        <v>51.436999999999998</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -69229,7 +69670,7 @@
       </c>
       <c r="H3">
         <f>COUNTIFS('PICAT-MKS'!H:H,"&gt;0",'PICAT-MKS'!D:D,Solved!F3)</f>
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I3">
         <f>COUNTIFS(CBS!H:H,"&gt;0",CBS!D:D,Solved!F3)</f>
@@ -69276,7 +69717,7 @@
       </c>
       <c r="H4">
         <f>COUNTIFS('PICAT-MKS'!H:H,"&gt;0",'PICAT-MKS'!D:D,Solved!F4)</f>
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="I4">
         <f>COUNTIFS(CBS!H:H,"&gt;0",CBS!D:D,Solved!F4)</f>
@@ -69291,7 +69732,7 @@
       </c>
       <c r="M4">
         <f>COUNTIFS('PICAT-MKS'!H:H,"&gt;0",'PICAT-MKS'!B:B,Solved!K4)</f>
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="N4">
         <f>COUNTIFS(CBS!H:H,"&gt;0",CBS!B:B,Solved!K4)</f>
@@ -69308,7 +69749,7 @@
       </c>
       <c r="C5">
         <f>COUNTIFS('PICAT-MKS'!H:H,"&gt;0",'PICAT-MKS'!C:C,Solved!A5)</f>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <f>COUNTIFS(CBS!H:H,"&gt;0",CBS!C:C,Solved!A5)</f>
@@ -69323,7 +69764,7 @@
       </c>
       <c r="H5">
         <f>COUNTIFS('PICAT-MKS'!H:H,"&gt;0",'PICAT-MKS'!D:D,Solved!F5)</f>
-        <v>233</v>
+        <v>277</v>
       </c>
       <c r="I5">
         <f>COUNTIFS(CBS!H:H,"&gt;0",CBS!D:D,Solved!F5)</f>
@@ -69338,7 +69779,7 @@
       </c>
       <c r="M5">
         <f>COUNTIFS('PICAT-MKS'!H:H,"&gt;0",'PICAT-MKS'!B:B,Solved!K5)</f>
-        <v>203</v>
+        <v>270</v>
       </c>
       <c r="N5">
         <f>COUNTIFS(CBS!H:H,"&gt;0",CBS!B:B,Solved!K5)</f>
@@ -69355,7 +69796,7 @@
       </c>
       <c r="C6">
         <f>COUNTIFS('PICAT-MKS'!H:H,"&gt;0",'PICAT-MKS'!C:C,Solved!A6)</f>
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <f>COUNTIFS(CBS!H:H,"&gt;0",CBS!C:C,Solved!A6)</f>
@@ -69372,7 +69813,7 @@
       </c>
       <c r="C7">
         <f>COUNTIFS('PICAT-MKS'!H:H,"&gt;0",'PICAT-MKS'!C:C,Solved!A7)</f>
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D7">
         <f>COUNTIFS(CBS!H:H,"&gt;0",CBS!C:C,Solved!A7)</f>
@@ -69389,7 +69830,7 @@
       </c>
       <c r="C8">
         <f>COUNTIFS('PICAT-MKS'!H:H,"&gt;0",'PICAT-MKS'!C:C,Solved!A8)</f>
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D8">
         <f>COUNTIFS(CBS!H:H,"&gt;0",CBS!C:C,Solved!A8)</f>
@@ -69406,7 +69847,7 @@
       </c>
       <c r="C9">
         <f>COUNTIFS('PICAT-MKS'!H:H,"&gt;0",'PICAT-MKS'!C:C,Solved!A9)</f>
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D9">
         <f>COUNTIFS(CBS!H:H,"&gt;0",CBS!C:C,Solved!A9)</f>
@@ -69423,7 +69864,7 @@
       </c>
       <c r="C10">
         <f>COUNTIFS('PICAT-MKS'!H:H,"&gt;0",'PICAT-MKS'!C:C,Solved!A10)</f>
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D10">
         <f>COUNTIFS(CBS!H:H,"&gt;0",CBS!C:C,Solved!A10)</f>
@@ -69440,7 +69881,7 @@
       </c>
       <c r="C11">
         <f>COUNTIFS('PICAT-MKS'!H:H,"&gt;0",'PICAT-MKS'!C:C,Solved!A11)</f>
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D11">
         <f>COUNTIFS(CBS!H:H,"&gt;0",CBS!C:C,Solved!A11)</f>
@@ -69457,7 +69898,7 @@
       </c>
       <c r="C12">
         <f>COUNTIFS('PICAT-MKS'!H:H,"&gt;0",'PICAT-MKS'!C:C,Solved!A12)</f>
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D12">
         <f>COUNTIFS(CBS!H:H,"&gt;0",CBS!C:C,Solved!A12)</f>
@@ -69474,7 +69915,7 @@
       </c>
       <c r="C14">
         <f>SUM(C3:C13)</f>
-        <v>797</v>
+        <v>870</v>
       </c>
       <c r="D14">
         <f>SUM(D3:D13)</f>
